--- a/Reparos Paiva.xlsx
+++ b/Reparos Paiva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paivaenergiapaivaenergia150.sharepoint.com/sites/paivaenergiaadministrativo/Engenharia/Reparos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paivaenergiapaivaenergia150.sharepoint.com/sites/paivaenergiaadministrativo/Engenharia/Reparos/dashboard_reparos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{B8575399-4DAE-4AC4-BFCE-C4C7D773ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52CBB53F-D56D-489D-B6F7-EC548FE7D10C}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{B8575399-4DAE-4AC4-BFCE-C4C7D773ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C3227-547A-4565-B983-12DC2E1E7ADC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reparos Paiva" sheetId="54" r:id="rId1"/>
@@ -4208,6 +4208,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -4236,6 +4257,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -4250,7 +4278,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4264,28 +4292,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4362,6 +4369,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -4369,14 +4383,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4391,6 +4405,48 @@
         <b/>
         <i val="0"/>
         <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4432,41 +4488,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -4482,62 +4503,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4586,126 +4551,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4761,7 +4607,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4769,13 +4615,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4803,7 +4642,168 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4866,7 +4866,42 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4881,6 +4916,20 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4922,13 +4971,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFC00000"/>
       </font>
     </dxf>
@@ -4937,20 +4979,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4985,20 +5013,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -5021,34 +5035,6 @@
         <b/>
         <i val="0"/>
         <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -5090,41 +5076,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5139,63 +5090,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -5258,27 +5153,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5287,27 +5161,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -5356,6 +5209,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5364,6 +5224,146 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -6580,13 +6580,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}" name="Tabela2" displayName="Tabela2" ref="A1:AB384" totalsRowShown="0" headerRowDxfId="217" dataCellStyle="Normal">
-  <autoFilter ref="A1:AB384" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}">
-    <filterColumn colId="5">
-      <filters>
-        <dateGroupItem year="2025" month="8" day="30" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB384" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{ED0FBB3D-D2AA-4156-A959-4A0F6CED4684}" name="SEQ" dataDxfId="216" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{52296C68-C138-4D5F-BF3A-B1CEA295081A}" name="PLACA" dataDxfId="215" dataCellStyle="Normal"/>
@@ -6960,8 +6954,8 @@
   <dimension ref="A1:BH384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J362" sqref="J362"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J290" sqref="J290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7149,7 +7143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>1</v>
       </c>
@@ -7295,7 +7289,7 @@
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
     </row>
-    <row r="3" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>2</v>
       </c>
@@ -7441,7 +7435,7 @@
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
     </row>
-    <row r="4" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>3</v>
       </c>
@@ -7585,7 +7579,7 @@
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
     </row>
-    <row r="5" spans="1:60" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>4</v>
       </c>
@@ -7731,7 +7725,7 @@
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
     </row>
-    <row r="6" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>5</v>
       </c>
@@ -7875,7 +7869,7 @@
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
     </row>
-    <row r="7" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>6</v>
       </c>
@@ -8026,7 +8020,7 @@
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
     </row>
-    <row r="8" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>7</v>
       </c>
@@ -8175,7 +8169,7 @@
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
     </row>
-    <row r="9" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>8</v>
       </c>
@@ -8324,7 +8318,7 @@
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
     </row>
-    <row r="10" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>9</v>
       </c>
@@ -8471,7 +8465,7 @@
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
     </row>
-    <row r="11" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>10</v>
       </c>
@@ -8616,7 +8610,7 @@
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
     </row>
-    <row r="12" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>11</v>
       </c>
@@ -8759,7 +8753,7 @@
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
     </row>
-    <row r="13" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>12</v>
       </c>
@@ -8904,7 +8898,7 @@
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
     </row>
-    <row r="14" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>13</v>
       </c>
@@ -9053,7 +9047,7 @@
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
     </row>
-    <row r="15" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>14</v>
       </c>
@@ -9200,7 +9194,7 @@
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
     </row>
-    <row r="16" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>15</v>
       </c>
@@ -9343,7 +9337,7 @@
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
     </row>
-    <row r="17" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>16</v>
       </c>
@@ -9481,7 +9475,7 @@
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
     </row>
-    <row r="18" spans="1:60" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>17</v>
       </c>
@@ -9623,7 +9617,7 @@
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
     </row>
-    <row r="19" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>18</v>
       </c>
@@ -9767,7 +9761,7 @@
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
     </row>
-    <row r="20" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>19</v>
       </c>
@@ -9907,7 +9901,7 @@
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
     </row>
-    <row r="21" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>20</v>
       </c>
@@ -10047,7 +10041,7 @@
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
     </row>
-    <row r="22" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>21</v>
       </c>
@@ -10189,7 +10183,7 @@
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
     </row>
-    <row r="23" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>22</v>
       </c>
@@ -10335,7 +10329,7 @@
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
     </row>
-    <row r="24" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>23</v>
       </c>
@@ -10479,7 +10473,7 @@
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
     </row>
-    <row r="25" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>24</v>
       </c>
@@ -10619,7 +10613,7 @@
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
     </row>
-    <row r="26" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>25</v>
       </c>
@@ -10758,7 +10752,7 @@
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
     </row>
-    <row r="27" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>26</v>
       </c>
@@ -10898,7 +10892,7 @@
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
     </row>
-    <row r="28" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
         <v>27</v>
       </c>
@@ -11039,7 +11033,7 @@
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
     </row>
-    <row r="29" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>28</v>
       </c>
@@ -11175,7 +11169,7 @@
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
     </row>
-    <row r="30" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>29</v>
       </c>
@@ -11312,7 +11306,7 @@
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
     </row>
-    <row r="31" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>30</v>
       </c>
@@ -11455,7 +11449,7 @@
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
     </row>
-    <row r="32" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>31</v>
       </c>
@@ -11577,7 +11571,7 @@
       </c>
       <c r="AU32" s="2"/>
     </row>
-    <row r="33" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>32</v>
       </c>
@@ -11706,7 +11700,7 @@
       </c>
       <c r="AU33" s="2"/>
     </row>
-    <row r="34" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>33</v>
       </c>
@@ -11845,7 +11839,7 @@
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
     </row>
-    <row r="35" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>34</v>
       </c>
@@ -11987,7 +11981,7 @@
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
     </row>
-    <row r="36" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>35</v>
       </c>
@@ -12129,7 +12123,7 @@
       <c r="BG36" s="2"/>
       <c r="BH36" s="2"/>
     </row>
-    <row r="37" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>36</v>
       </c>
@@ -12258,7 +12252,7 @@
       </c>
       <c r="AU37" s="2"/>
     </row>
-    <row r="38" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>37</v>
       </c>
@@ -12387,7 +12381,7 @@
       </c>
       <c r="AU38" s="2"/>
     </row>
-    <row r="39" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>38</v>
       </c>
@@ -12521,7 +12515,7 @@
       </c>
       <c r="AU39" s="2"/>
     </row>
-    <row r="40" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>39</v>
       </c>
@@ -12653,7 +12647,7 @@
       </c>
       <c r="AU40" s="2"/>
     </row>
-    <row r="41" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>40</v>
       </c>
@@ -12785,7 +12779,7 @@
       </c>
       <c r="AU41" s="2"/>
     </row>
-    <row r="42" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>41</v>
       </c>
@@ -12915,7 +12909,7 @@
       </c>
       <c r="AU42" s="2"/>
     </row>
-    <row r="43" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49">
         <v>42</v>
       </c>
@@ -13036,7 +13030,7 @@
       </c>
       <c r="AU43" s="2"/>
     </row>
-    <row r="44" spans="1:60" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="49">
         <v>43</v>
       </c>
@@ -13160,7 +13154,7 @@
       </c>
       <c r="AU44" s="2"/>
     </row>
-    <row r="45" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>44</v>
       </c>
@@ -13250,7 +13244,7 @@
       <c r="AT45" s="78"/>
       <c r="AU45" s="2"/>
     </row>
-    <row r="46" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>45</v>
       </c>
@@ -13323,7 +13317,7 @@
       <c r="AT46" s="78"/>
       <c r="AU46" s="2"/>
     </row>
-    <row r="47" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>46</v>
       </c>
@@ -13409,7 +13403,7 @@
       <c r="AT47" s="13"/>
       <c r="AU47" s="2"/>
     </row>
-    <row r="48" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>47</v>
       </c>
@@ -13495,7 +13489,7 @@
       <c r="AT48" s="13"/>
       <c r="AU48" s="2"/>
     </row>
-    <row r="49" spans="1:47" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
         <v>48</v>
       </c>
@@ -13581,7 +13575,7 @@
       <c r="AT49" s="13"/>
       <c r="AU49" s="2"/>
     </row>
-    <row r="50" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
         <v>49</v>
       </c>
@@ -13669,7 +13663,7 @@
       <c r="AT50" s="13"/>
       <c r="AU50" s="2"/>
     </row>
-    <row r="51" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>50</v>
       </c>
@@ -13760,7 +13754,7 @@
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
     </row>
-    <row r="52" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
         <v>51</v>
       </c>
@@ -13849,7 +13843,7 @@
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
     </row>
-    <row r="53" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
         <v>52</v>
       </c>
@@ -13937,7 +13931,7 @@
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
     </row>
-    <row r="54" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>53</v>
       </c>
@@ -14023,7 +14017,7 @@
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
     </row>
-    <row r="55" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>54</v>
       </c>
@@ -14109,7 +14103,7 @@
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
     </row>
-    <row r="56" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>55</v>
       </c>
@@ -14194,7 +14188,7 @@
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
     </row>
-    <row r="57" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>56</v>
       </c>
@@ -14283,7 +14277,7 @@
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
     </row>
-    <row r="58" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>57</v>
       </c>
@@ -14374,7 +14368,7 @@
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
     </row>
-    <row r="59" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
         <v>58</v>
       </c>
@@ -14462,7 +14456,7 @@
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
     </row>
-    <row r="60" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>59</v>
       </c>
@@ -14553,7 +14547,7 @@
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
     </row>
-    <row r="61" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
         <v>60</v>
       </c>
@@ -14642,7 +14636,7 @@
       <c r="AT61" s="2"/>
       <c r="AU61" s="2"/>
     </row>
-    <row r="62" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>61</v>
       </c>
@@ -14727,7 +14721,7 @@
       <c r="AT62" s="2"/>
       <c r="AU62" s="2"/>
     </row>
-    <row r="63" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
         <v>62</v>
       </c>
@@ -14820,7 +14814,7 @@
       <c r="AT63" s="2"/>
       <c r="AU63" s="2"/>
     </row>
-    <row r="64" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>63</v>
       </c>
@@ -14910,7 +14904,7 @@
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
     </row>
-    <row r="65" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>64</v>
       </c>
@@ -14999,7 +14993,7 @@
       <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
     </row>
-    <row r="66" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>65</v>
       </c>
@@ -15085,7 +15079,7 @@
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
     </row>
-    <row r="67" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>66</v>
       </c>
@@ -15174,7 +15168,7 @@
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
     </row>
-    <row r="68" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>67</v>
       </c>
@@ -15261,7 +15255,7 @@
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
     </row>
-    <row r="69" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>68</v>
       </c>
@@ -15350,7 +15344,7 @@
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
     </row>
-    <row r="70" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>69</v>
       </c>
@@ -15439,7 +15433,7 @@
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
     </row>
-    <row r="71" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>70</v>
       </c>
@@ -15528,7 +15522,7 @@
       <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
     </row>
-    <row r="72" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>71</v>
       </c>
@@ -15607,7 +15601,7 @@
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
     </row>
-    <row r="73" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
         <v>72</v>
       </c>
@@ -15698,7 +15692,7 @@
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
     </row>
-    <row r="74" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>73</v>
       </c>
@@ -15789,7 +15783,7 @@
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
     </row>
-    <row r="75" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
         <v>74</v>
       </c>
@@ -15875,7 +15869,7 @@
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
     </row>
-    <row r="76" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
         <v>75</v>
       </c>
@@ -15959,7 +15953,7 @@
       <c r="AT76" s="2"/>
       <c r="AU76" s="2"/>
     </row>
-    <row r="77" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="49">
         <v>76</v>
       </c>
@@ -16043,7 +16037,7 @@
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
     </row>
-    <row r="78" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
         <v>77</v>
       </c>
@@ -16127,7 +16121,7 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
     </row>
-    <row r="79" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="49">
         <v>78</v>
       </c>
@@ -16204,7 +16198,7 @@
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
     </row>
-    <row r="80" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -16283,7 +16277,7 @@
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
     </row>
-    <row r="81" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -16362,7 +16356,7 @@
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
     </row>
-    <row r="82" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -16441,7 +16435,7 @@
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
     </row>
-    <row r="83" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -16520,7 +16514,7 @@
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
     </row>
-    <row r="84" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="49">
         <v>83</v>
       </c>
@@ -16599,7 +16593,7 @@
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
     </row>
-    <row r="85" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="49">
         <v>84</v>
       </c>
@@ -16678,7 +16672,7 @@
       <c r="AT85" s="2"/>
       <c r="AU85" s="2"/>
     </row>
-    <row r="86" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="49">
         <v>85</v>
       </c>
@@ -16757,7 +16751,7 @@
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
     </row>
-    <row r="87" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="49">
         <v>86</v>
       </c>
@@ -16838,7 +16832,7 @@
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
     </row>
-    <row r="88" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="49">
         <v>87</v>
       </c>
@@ -16926,7 +16920,7 @@
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
     </row>
-    <row r="89" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="49">
         <v>88</v>
       </c>
@@ -17016,7 +17010,7 @@
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
     </row>
-    <row r="90" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="49">
         <v>89</v>
       </c>
@@ -17103,7 +17097,7 @@
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
     </row>
-    <row r="91" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="49">
         <v>90</v>
       </c>
@@ -17187,7 +17181,7 @@
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
     </row>
-    <row r="92" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="49">
         <v>91</v>
       </c>
@@ -17271,7 +17265,7 @@
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
     </row>
-    <row r="93" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="49">
         <v>92</v>
       </c>
@@ -17355,7 +17349,7 @@
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
     </row>
-    <row r="94" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="49">
         <v>93</v>
       </c>
@@ -17441,7 +17435,7 @@
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
     </row>
-    <row r="95" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="49">
         <v>94</v>
       </c>
@@ -17523,7 +17517,7 @@
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
     </row>
-    <row r="96" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="49">
         <v>95</v>
       </c>
@@ -17616,7 +17610,7 @@
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
     </row>
-    <row r="97" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="49">
         <v>96</v>
       </c>
@@ -17709,7 +17703,7 @@
       <c r="AT97" s="2"/>
       <c r="AU97" s="2"/>
     </row>
-    <row r="98" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="49">
         <v>97</v>
       </c>
@@ -17795,7 +17789,7 @@
       <c r="AT98" s="2"/>
       <c r="AU98" s="2"/>
     </row>
-    <row r="99" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="49">
         <v>98</v>
       </c>
@@ -17879,7 +17873,7 @@
       <c r="AT99" s="2"/>
       <c r="AU99" s="2"/>
     </row>
-    <row r="100" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="49">
         <v>99</v>
       </c>
@@ -17963,7 +17957,7 @@
       <c r="AT100" s="2"/>
       <c r="AU100" s="2"/>
     </row>
-    <row r="101" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="49">
         <v>100</v>
       </c>
@@ -18048,7 +18042,7 @@
       <c r="AT101" s="2"/>
       <c r="AU101" s="2"/>
     </row>
-    <row r="102" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="49">
         <v>101</v>
       </c>
@@ -18129,7 +18123,7 @@
       <c r="AT102" s="2"/>
       <c r="AU102" s="2"/>
     </row>
-    <row r="103" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="49">
         <v>102</v>
       </c>
@@ -18210,7 +18204,7 @@
       <c r="AT103" s="2"/>
       <c r="AU103" s="2"/>
     </row>
-    <row r="104" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>103</v>
       </c>
@@ -18289,7 +18283,7 @@
       <c r="AT104" s="2"/>
       <c r="AU104" s="2"/>
     </row>
-    <row r="105" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="49">
         <v>104</v>
       </c>
@@ -18375,7 +18369,7 @@
       <c r="AT105" s="2"/>
       <c r="AU105" s="2"/>
     </row>
-    <row r="106" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="49">
         <v>105</v>
       </c>
@@ -18457,7 +18451,7 @@
       <c r="AT106" s="2"/>
       <c r="AU106" s="2"/>
     </row>
-    <row r="107" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="49">
         <v>106</v>
       </c>
@@ -18541,7 +18535,7 @@
       <c r="AT107" s="2"/>
       <c r="AU107" s="2"/>
     </row>
-    <row r="108" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="49">
         <v>107</v>
       </c>
@@ -18628,7 +18622,7 @@
       <c r="AT108" s="2"/>
       <c r="AU108" s="2"/>
     </row>
-    <row r="109" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="49">
         <v>108</v>
       </c>
@@ -18712,7 +18706,7 @@
       <c r="AT109" s="2"/>
       <c r="AU109" s="2"/>
     </row>
-    <row r="110" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="49">
         <v>109</v>
       </c>
@@ -18796,7 +18790,7 @@
       <c r="AT110" s="2"/>
       <c r="AU110" s="2"/>
     </row>
-    <row r="111" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="49">
         <v>110</v>
       </c>
@@ -18880,7 +18874,7 @@
       <c r="AT111" s="2"/>
       <c r="AU111" s="2"/>
     </row>
-    <row r="112" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="49">
         <v>111</v>
       </c>
@@ -18964,7 +18958,7 @@
       <c r="AT112" s="2"/>
       <c r="AU112" s="2"/>
     </row>
-    <row r="113" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="49">
         <v>112</v>
       </c>
@@ -19048,7 +19042,7 @@
       <c r="AT113" s="2"/>
       <c r="AU113" s="2"/>
     </row>
-    <row r="114" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="49">
         <v>113</v>
       </c>
@@ -19132,7 +19126,7 @@
       <c r="AT114" s="2"/>
       <c r="AU114" s="2"/>
     </row>
-    <row r="115" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="49">
         <v>114</v>
       </c>
@@ -19225,7 +19219,7 @@
       <c r="AT115" s="2"/>
       <c r="AU115" s="2"/>
     </row>
-    <row r="116" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="49">
         <v>115</v>
       </c>
@@ -19302,7 +19296,7 @@
       <c r="AT116" s="2"/>
       <c r="AU116" s="2"/>
     </row>
-    <row r="117" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="49">
         <v>116</v>
       </c>
@@ -19395,7 +19389,7 @@
       <c r="AT117" s="2"/>
       <c r="AU117" s="2"/>
     </row>
-    <row r="118" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="49">
         <v>117</v>
       </c>
@@ -19485,7 +19479,7 @@
       <c r="AT118" s="2"/>
       <c r="AU118" s="2"/>
     </row>
-    <row r="119" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="49">
         <v>118</v>
       </c>
@@ -19564,7 +19558,7 @@
       <c r="AT119" s="2"/>
       <c r="AU119" s="2"/>
     </row>
-    <row r="120" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="49">
         <v>119</v>
       </c>
@@ -19648,7 +19642,7 @@
       <c r="AT120" s="2"/>
       <c r="AU120" s="2"/>
     </row>
-    <row r="121" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="49">
         <v>120</v>
       </c>
@@ -19743,7 +19737,7 @@
       <c r="AT121" s="2"/>
       <c r="AU121" s="2"/>
     </row>
-    <row r="122" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="49">
         <v>121</v>
       </c>
@@ -19829,7 +19823,7 @@
       <c r="AT122" s="2"/>
       <c r="AU122" s="2"/>
     </row>
-    <row r="123" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="49">
         <v>122</v>
       </c>
@@ -19921,7 +19915,7 @@
       <c r="AT123" s="2"/>
       <c r="AU123" s="2"/>
     </row>
-    <row r="124" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="49">
         <v>123</v>
       </c>
@@ -20013,7 +20007,7 @@
       <c r="AT124" s="2"/>
       <c r="AU124" s="2"/>
     </row>
-    <row r="125" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A125" s="49">
         <v>124</v>
       </c>
@@ -20099,7 +20093,7 @@
       <c r="AT125" s="2"/>
       <c r="AU125" s="2"/>
     </row>
-    <row r="126" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A126" s="49">
         <v>125</v>
       </c>
@@ -20183,7 +20177,7 @@
       <c r="AT126" s="2"/>
       <c r="AU126" s="2"/>
     </row>
-    <row r="127" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A127" s="49">
         <v>126</v>
       </c>
@@ -20265,7 +20259,7 @@
       <c r="AT127" s="2"/>
       <c r="AU127" s="2"/>
     </row>
-    <row r="128" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A128" s="49">
         <v>127</v>
       </c>
@@ -20347,7 +20341,7 @@
       <c r="AT128" s="2"/>
       <c r="AU128" s="2"/>
     </row>
-    <row r="129" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A129" s="49">
         <v>128</v>
       </c>
@@ -20429,7 +20423,7 @@
       <c r="AT129" s="2"/>
       <c r="AU129" s="2"/>
     </row>
-    <row r="130" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A130" s="49">
         <v>129</v>
       </c>
@@ -20514,7 +20508,7 @@
       <c r="AT130" s="2"/>
       <c r="AU130" s="2"/>
     </row>
-    <row r="131" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A131" s="49">
         <v>130</v>
       </c>
@@ -20599,7 +20593,7 @@
       <c r="AT131" s="2"/>
       <c r="AU131" s="2"/>
     </row>
-    <row r="132" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A132" s="49">
         <v>131</v>
       </c>
@@ -20684,7 +20678,7 @@
       <c r="AT132" s="2"/>
       <c r="AU132" s="2"/>
     </row>
-    <row r="133" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A133" s="49">
         <v>132</v>
       </c>
@@ -20769,7 +20763,7 @@
       <c r="AT133" s="2"/>
       <c r="AU133" s="2"/>
     </row>
-    <row r="134" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A134" s="49">
         <v>133</v>
       </c>
@@ -20854,7 +20848,7 @@
       <c r="AT134" s="2"/>
       <c r="AU134" s="2"/>
     </row>
-    <row r="135" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A135" s="49">
         <v>134</v>
       </c>
@@ -20945,7 +20939,7 @@
       <c r="AT135" s="2"/>
       <c r="AU135" s="2"/>
     </row>
-    <row r="136" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A136" s="49">
         <v>135</v>
       </c>
@@ -21029,7 +21023,7 @@
       <c r="AT136" s="2"/>
       <c r="AU136" s="2"/>
     </row>
-    <row r="137" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A137" s="49">
         <v>136</v>
       </c>
@@ -21113,7 +21107,7 @@
       <c r="AT137" s="2"/>
       <c r="AU137" s="2"/>
     </row>
-    <row r="138" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A138" s="49">
         <v>137</v>
       </c>
@@ -21197,7 +21191,7 @@
       <c r="AT138" s="2"/>
       <c r="AU138" s="2"/>
     </row>
-    <row r="139" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A139" s="49">
         <v>138</v>
       </c>
@@ -21281,7 +21275,7 @@
       <c r="AT139" s="2"/>
       <c r="AU139" s="2"/>
     </row>
-    <row r="140" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A140" s="49">
         <v>139</v>
       </c>
@@ -21366,7 +21360,7 @@
       <c r="AT140" s="2"/>
       <c r="AU140" s="2"/>
     </row>
-    <row r="141" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A141" s="49">
         <v>140</v>
       </c>
@@ -21451,7 +21445,7 @@
       <c r="AT141" s="2"/>
       <c r="AU141" s="2"/>
     </row>
-    <row r="142" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A142" s="49">
         <v>141</v>
       </c>
@@ -21536,7 +21530,7 @@
       <c r="AT142" s="2"/>
       <c r="AU142" s="2"/>
     </row>
-    <row r="143" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A143" s="49">
         <v>142</v>
       </c>
@@ -21620,7 +21614,7 @@
       <c r="AT143" s="2"/>
       <c r="AU143" s="2"/>
     </row>
-    <row r="144" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A144" s="49">
         <v>143</v>
       </c>
@@ -21691,7 +21685,7 @@
       <c r="AT144" s="2"/>
       <c r="AU144" s="2"/>
     </row>
-    <row r="145" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A145" s="49">
         <v>144</v>
       </c>
@@ -21762,7 +21756,7 @@
       <c r="AT145" s="2"/>
       <c r="AU145" s="2"/>
     </row>
-    <row r="146" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A146" s="49">
         <v>145</v>
       </c>
@@ -21846,7 +21840,7 @@
       <c r="AT146" s="2"/>
       <c r="AU146" s="2"/>
     </row>
-    <row r="147" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A147" s="49">
         <v>146</v>
       </c>
@@ -21932,7 +21926,7 @@
       <c r="AT147" s="2"/>
       <c r="AU147" s="2"/>
     </row>
-    <row r="148" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A148" s="49">
         <v>147</v>
       </c>
@@ -22012,7 +22006,7 @@
       <c r="AT148" s="2"/>
       <c r="AU148" s="2"/>
     </row>
-    <row r="149" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A149" s="49">
         <v>148</v>
       </c>
@@ -22100,7 +22094,7 @@
       <c r="AT149" s="2"/>
       <c r="AU149" s="2"/>
     </row>
-    <row r="150" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A150" s="49">
         <v>149</v>
       </c>
@@ -22183,7 +22177,7 @@
       <c r="AT150" s="2"/>
       <c r="AU150" s="2"/>
     </row>
-    <row r="151" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A151" s="49">
         <v>150</v>
       </c>
@@ -22269,7 +22263,7 @@
       <c r="AT151" s="2"/>
       <c r="AU151" s="2"/>
     </row>
-    <row r="152" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A152" s="49">
         <v>151</v>
       </c>
@@ -22355,7 +22349,7 @@
       <c r="AT152" s="2"/>
       <c r="AU152" s="2"/>
     </row>
-    <row r="153" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A153" s="49">
         <v>152</v>
       </c>
@@ -22445,7 +22439,7 @@
       <c r="AT153" s="2"/>
       <c r="AU153" s="2"/>
     </row>
-    <row r="154" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A154" s="49">
         <v>153</v>
       </c>
@@ -22529,7 +22523,7 @@
       <c r="AT154" s="2"/>
       <c r="AU154" s="2"/>
     </row>
-    <row r="155" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A155" s="49">
         <v>154</v>
       </c>
@@ -22615,7 +22609,7 @@
       <c r="AT155" s="2"/>
       <c r="AU155" s="2"/>
     </row>
-    <row r="156" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A156" s="49">
         <v>155</v>
       </c>
@@ -22699,7 +22693,7 @@
       <c r="AT156" s="2"/>
       <c r="AU156" s="2"/>
     </row>
-    <row r="157" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A157" s="49">
         <v>156</v>
       </c>
@@ -22787,7 +22781,7 @@
       <c r="AT157" s="2"/>
       <c r="AU157" s="2"/>
     </row>
-    <row r="158" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A158" s="49">
         <v>157</v>
       </c>
@@ -22873,7 +22867,7 @@
       <c r="AT158" s="2"/>
       <c r="AU158" s="2"/>
     </row>
-    <row r="159" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A159" s="49">
         <v>158</v>
       </c>
@@ -22959,7 +22953,7 @@
       <c r="AT159" s="2"/>
       <c r="AU159" s="2"/>
     </row>
-    <row r="160" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A160" s="49">
         <v>159</v>
       </c>
@@ -23045,7 +23039,7 @@
       <c r="AT160" s="2"/>
       <c r="AU160" s="2"/>
     </row>
-    <row r="161" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A161" s="49">
         <v>160</v>
       </c>
@@ -23126,7 +23120,7 @@
       <c r="AT161" s="2"/>
       <c r="AU161" s="2"/>
     </row>
-    <row r="162" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A162" s="49">
         <v>161</v>
       </c>
@@ -23207,7 +23201,7 @@
       <c r="AT162" s="2"/>
       <c r="AU162" s="2"/>
     </row>
-    <row r="163" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A163" s="49">
         <v>162</v>
       </c>
@@ -23291,7 +23285,7 @@
       <c r="AT163" s="2"/>
       <c r="AU163" s="2"/>
     </row>
-    <row r="164" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A164" s="49">
         <v>163</v>
       </c>
@@ -23375,7 +23369,7 @@
       <c r="AT164" s="2"/>
       <c r="AU164" s="2"/>
     </row>
-    <row r="165" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A165" s="49">
         <v>164</v>
       </c>
@@ -23459,7 +23453,7 @@
       <c r="AT165" s="2"/>
       <c r="AU165" s="2"/>
     </row>
-    <row r="166" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A166" s="49">
         <v>165</v>
       </c>
@@ -23550,7 +23544,7 @@
       <c r="AT166" s="2"/>
       <c r="AU166" s="2"/>
     </row>
-    <row r="167" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A167" s="49">
         <v>166</v>
       </c>
@@ -23638,7 +23632,7 @@
       <c r="AT167" s="2"/>
       <c r="AU167" s="2"/>
     </row>
-    <row r="168" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A168" s="49">
         <v>167</v>
       </c>
@@ -23722,7 +23716,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A169" s="49">
         <v>168</v>
       </c>
@@ -23810,7 +23804,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A170" s="49">
         <v>169</v>
       </c>
@@ -23893,7 +23887,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A171" s="49">
         <v>170</v>
       </c>
@@ -23981,7 +23975,7 @@
       <c r="AT171" s="2"/>
       <c r="AU171" s="2"/>
     </row>
-    <row r="172" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A172" s="49">
         <v>171</v>
       </c>
@@ -24065,7 +24059,7 @@
       <c r="AT172" s="2"/>
       <c r="AU172" s="2"/>
     </row>
-    <row r="173" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A173" s="49">
         <v>172</v>
       </c>
@@ -24150,7 +24144,7 @@
       <c r="AT173" s="2"/>
       <c r="AU173" s="2"/>
     </row>
-    <row r="174" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A174" s="49">
         <v>173</v>
       </c>
@@ -24230,7 +24224,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A175" s="49">
         <v>174</v>
       </c>
@@ -24318,7 +24312,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A176" s="49">
         <v>175</v>
       </c>
@@ -24385,7 +24379,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="177" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A177" s="49">
         <v>176</v>
       </c>
@@ -24452,7 +24446,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="178" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A178" s="49">
         <v>177</v>
       </c>
@@ -24519,7 +24513,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="179" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A179" s="49">
         <v>178</v>
       </c>
@@ -24607,7 +24601,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A180" s="49">
         <v>179</v>
       </c>
@@ -24689,7 +24683,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A181" s="49">
         <v>180</v>
       </c>
@@ -24771,7 +24765,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A182" s="49">
         <v>181</v>
       </c>
@@ -24842,7 +24836,7 @@
       </c>
       <c r="AC182" s="103"/>
     </row>
-    <row r="183" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A183" s="49">
         <v>182</v>
       </c>
@@ -24915,7 +24909,7 @@
       </c>
       <c r="AC183" s="103"/>
     </row>
-    <row r="184" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A184" s="49">
         <v>183</v>
       </c>
@@ -24978,7 +24972,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="185" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A185" s="49">
         <v>184</v>
       </c>
@@ -25049,7 +25043,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="186" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A186" s="49">
         <v>185</v>
       </c>
@@ -25118,7 +25112,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="187" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A187" s="49">
         <v>186</v>
       </c>
@@ -25186,7 +25180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A188" s="49">
         <v>187</v>
       </c>
@@ -25257,7 +25251,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="189" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A189" s="49">
         <v>188</v>
       </c>
@@ -25333,7 +25327,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="190" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A190" s="49">
         <v>189</v>
       </c>
@@ -25409,7 +25403,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A191" s="49">
         <v>190</v>
       </c>
@@ -25478,7 +25472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A192" s="49">
         <v>191</v>
       </c>
@@ -25542,7 +25536,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" s="49">
         <v>192</v>
       </c>
@@ -25606,7 +25600,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" s="49">
         <v>193</v>
       </c>
@@ -25681,7 +25675,7 @@
       </c>
       <c r="AC194" s="103"/>
     </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" s="49">
         <v>194</v>
       </c>
@@ -25743,7 +25737,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" s="49">
         <v>195</v>
       </c>
@@ -25809,7 +25803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A197" s="49">
         <v>196</v>
       </c>
@@ -25877,7 +25871,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" s="49">
         <v>198</v>
       </c>
@@ -25941,7 +25935,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" s="49">
         <v>299</v>
       </c>
@@ -25995,7 +25989,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" s="49">
         <v>300</v>
       </c>
@@ -26053,7 +26047,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" s="49">
         <v>200</v>
       </c>
@@ -26124,7 +26118,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" s="49">
         <v>201</v>
       </c>
@@ -26189,7 +26183,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" s="49">
         <v>202</v>
       </c>
@@ -26253,7 +26247,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" s="49">
         <v>203</v>
       </c>
@@ -26320,7 +26314,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" s="49">
         <v>204</v>
       </c>
@@ -26385,7 +26379,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A206" s="49">
         <v>205</v>
       </c>
@@ -26450,7 +26444,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A207" s="49">
         <v>206</v>
       </c>
@@ -26515,7 +26509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A208" s="49">
         <v>207</v>
       </c>
@@ -26580,7 +26574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A209" s="49">
         <v>208</v>
       </c>
@@ -26645,7 +26639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A210" s="49">
         <v>209</v>
       </c>
@@ -26716,7 +26710,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" s="49">
         <v>210</v>
       </c>
@@ -26781,7 +26775,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A212" s="49">
         <v>211</v>
       </c>
@@ -26848,7 +26842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A213" s="49">
         <v>212</v>
       </c>
@@ -26921,7 +26915,7 @@
       </c>
       <c r="AC213" s="103"/>
     </row>
-    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A214" s="49">
         <v>213</v>
       </c>
@@ -26994,7 +26988,7 @@
       </c>
       <c r="AC214" s="103"/>
     </row>
-    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" s="49">
         <v>214</v>
       </c>
@@ -27057,7 +27051,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A216" s="49">
         <v>215</v>
       </c>
@@ -27127,7 +27121,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A217" s="49">
         <v>216</v>
       </c>
@@ -27198,7 +27192,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A218" s="49">
         <v>217</v>
       </c>
@@ -27266,7 +27260,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A219" s="49">
         <v>218</v>
       </c>
@@ -27331,7 +27325,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A220" s="49">
         <v>219</v>
       </c>
@@ -27391,7 +27385,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" s="49">
         <v>220</v>
       </c>
@@ -27456,7 +27450,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" s="49">
         <v>221</v>
       </c>
@@ -27526,7 +27520,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" s="49">
         <v>222</v>
       </c>
@@ -27593,7 +27587,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A224" s="49">
         <v>223</v>
       </c>
@@ -27667,7 +27661,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225" s="49">
         <v>224</v>
       </c>
@@ -27739,7 +27733,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="226" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226" s="49">
         <v>225</v>
       </c>
@@ -27804,7 +27798,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227" s="49">
         <v>226</v>
       </c>
@@ -27866,7 +27860,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" s="49">
         <v>227</v>
       </c>
@@ -27933,7 +27927,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="229" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229" s="49">
         <v>228</v>
       </c>
@@ -28003,7 +27997,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" s="49">
         <v>229</v>
       </c>
@@ -28073,7 +28067,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" s="49">
         <v>230</v>
       </c>
@@ -28147,7 +28141,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232" s="49">
         <v>231</v>
       </c>
@@ -28212,7 +28206,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A233" s="49">
         <v>232</v>
       </c>
@@ -28286,7 +28280,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234" s="49">
         <v>233</v>
       </c>
@@ -28354,7 +28348,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="235" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235" s="49">
         <v>234</v>
       </c>
@@ -28426,7 +28420,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236" s="49">
         <v>235</v>
       </c>
@@ -28493,7 +28487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237" s="49">
         <v>236</v>
       </c>
@@ -28559,7 +28553,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238" s="49">
         <v>237</v>
       </c>
@@ -28625,7 +28619,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" s="49">
         <v>238</v>
       </c>
@@ -28701,7 +28695,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" s="49">
         <v>239</v>
       </c>
@@ -28773,7 +28767,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A241" s="49">
         <v>240</v>
       </c>
@@ -28843,7 +28837,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A242" s="49">
         <v>241</v>
       </c>
@@ -28917,7 +28911,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A243" s="49">
         <v>242</v>
       </c>
@@ -28991,7 +28985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A244" s="49">
         <v>243</v>
       </c>
@@ -29061,7 +29055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A245" s="49">
         <v>244</v>
       </c>
@@ -29135,7 +29129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A246" s="49">
         <v>245</v>
       </c>
@@ -29205,7 +29199,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A247" s="49">
         <v>246</v>
       </c>
@@ -29276,7 +29270,7 @@
       </c>
       <c r="AC247" s="107"/>
     </row>
-    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
         <v>247</v>
       </c>
@@ -29347,7 +29341,7 @@
       </c>
       <c r="AC248" s="110"/>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A249" s="49">
         <v>248</v>
       </c>
@@ -29421,7 +29415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A250" s="49">
         <v>249</v>
       </c>
@@ -29495,7 +29489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A251" s="49">
         <v>250</v>
       </c>
@@ -29565,7 +29559,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A252" s="49">
         <v>251</v>
       </c>
@@ -29639,7 +29633,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A253" s="49">
         <v>252</v>
       </c>
@@ -29708,7 +29702,7 @@
       </c>
       <c r="AC253" s="110"/>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A254" s="49">
         <v>253</v>
       </c>
@@ -29777,7 +29771,7 @@
       </c>
       <c r="AC254" s="110"/>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A255" s="49">
         <v>254</v>
       </c>
@@ -29851,7 +29845,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A256" s="49">
         <v>255</v>
       </c>
@@ -29917,7 +29911,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257" s="49">
         <v>256</v>
       </c>
@@ -29983,7 +29977,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258" s="49">
         <v>257</v>
       </c>
@@ -30049,7 +30043,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259" s="49">
         <v>258</v>
       </c>
@@ -30117,7 +30111,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A260" s="49">
         <v>259</v>
       </c>
@@ -30187,7 +30181,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261" s="49">
         <v>260</v>
       </c>
@@ -30253,7 +30247,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262" s="49">
         <v>261</v>
       </c>
@@ -30315,7 +30309,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263" s="49">
         <v>262</v>
       </c>
@@ -30381,7 +30375,7 @@
       <c r="AA263" s="98"/>
       <c r="AB263" s="99"/>
     </row>
-    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A264" s="49">
         <v>263</v>
       </c>
@@ -30449,7 +30443,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265" s="49">
         <v>264</v>
       </c>
@@ -30523,7 +30517,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266" s="49">
         <v>265</v>
       </c>
@@ -30597,7 +30591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267" s="49">
         <v>266</v>
       </c>
@@ -30667,7 +30661,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A268" s="49">
         <v>267</v>
       </c>
@@ -30737,7 +30731,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269" s="49">
         <v>268</v>
       </c>
@@ -30807,7 +30801,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270" s="49">
         <v>269</v>
       </c>
@@ -30875,7 +30869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271" s="49">
         <v>270</v>
       </c>
@@ -30945,7 +30939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272" s="49">
         <v>271</v>
       </c>
@@ -31017,7 +31011,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273" s="49">
         <v>272</v>
       </c>
@@ -31085,7 +31079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A274" s="49">
         <v>273</v>
       </c>
@@ -31147,7 +31141,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="275" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A275" s="49">
         <v>274</v>
       </c>
@@ -31219,7 +31213,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="276" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A276" s="49">
         <v>275</v>
       </c>
@@ -31289,7 +31283,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="277" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A277" s="49">
         <v>276</v>
       </c>
@@ -31355,7 +31349,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="278" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A278" s="49">
         <v>277</v>
       </c>
@@ -31421,7 +31415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="279" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A279" s="49">
         <v>278</v>
       </c>
@@ -31489,7 +31483,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="280" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A280" s="49">
         <v>279</v>
       </c>
@@ -31557,7 +31551,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="281" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A281" s="49">
         <v>280</v>
       </c>
@@ -31617,7 +31611,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="282" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A282" s="49">
         <v>281</v>
       </c>
@@ -31677,7 +31671,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="283" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A283" s="49">
         <v>282</v>
       </c>
@@ -31741,7 +31735,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="284" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A284" s="49">
         <v>283</v>
       </c>
@@ -31799,7 +31793,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="285" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A285" s="49">
         <v>284</v>
       </c>
@@ -31867,7 +31861,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="286" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A286" s="49">
         <v>285</v>
       </c>
@@ -31927,7 +31921,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="287" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A287" s="49">
         <v>286</v>
       </c>
@@ -31993,7 +31987,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="288" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A288" s="49">
         <v>287</v>
       </c>
@@ -32057,7 +32051,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A289" s="49">
         <v>288</v>
       </c>
@@ -32128,7 +32122,7 @@
       </c>
       <c r="AC289" s="107"/>
     </row>
-    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A290" s="49">
         <v>289</v>
       </c>
@@ -32192,7 +32186,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A291" s="49">
         <v>290</v>
       </c>
@@ -32258,7 +32252,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A292" s="49">
         <v>291</v>
       </c>
@@ -32324,7 +32318,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A293" s="49">
         <v>292</v>
       </c>
@@ -32390,7 +32384,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A294" s="49">
         <v>293</v>
       </c>
@@ -32460,7 +32454,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A295" s="49">
         <v>294</v>
       </c>
@@ -32526,7 +32520,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A296" s="49">
         <v>295</v>
       </c>
@@ -32594,7 +32588,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A297" s="49">
         <v>296</v>
       </c>
@@ -32662,7 +32656,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A298" s="49">
         <v>297</v>
       </c>
@@ -32726,7 +32720,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A299" s="49">
         <v>197</v>
       </c>
@@ -32784,7 +32778,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A300" s="49">
         <v>199</v>
       </c>
@@ -32848,7 +32842,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A301" s="49">
         <v>298</v>
       </c>
@@ -32906,7 +32900,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A302" s="49">
         <v>301</v>
       </c>
@@ -32974,7 +32968,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A303" s="49">
         <v>302</v>
       </c>
@@ -33042,7 +33036,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A304" s="49">
         <v>303</v>
       </c>
@@ -33102,7 +33096,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="305" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A305" s="49">
         <v>304</v>
       </c>
@@ -33162,7 +33156,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306" s="49">
         <v>305</v>
       </c>
@@ -33222,7 +33216,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A307" s="49">
         <v>306</v>
       </c>
@@ -33286,7 +33280,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="308" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A308" s="49">
         <v>307</v>
       </c>
@@ -33354,7 +33348,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="309" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A309" s="49">
         <v>308</v>
       </c>
@@ -33414,7 +33408,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310" s="49">
         <v>309</v>
       </c>
@@ -33480,7 +33474,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A311" s="49">
         <v>310</v>
       </c>
@@ -33544,7 +33538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="312" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312" s="49">
         <v>311</v>
       </c>
@@ -33610,7 +33604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313" s="49">
         <v>312</v>
       </c>
@@ -33680,7 +33674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314" s="49">
         <v>313</v>
       </c>
@@ -33742,7 +33736,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="315" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A315" s="49">
         <v>314</v>
       </c>
@@ -33810,7 +33804,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="316" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A316" s="49">
         <v>315</v>
       </c>
@@ -33878,7 +33872,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A317" s="49">
         <v>316</v>
       </c>
@@ -33938,7 +33932,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A318" s="49">
         <v>318</v>
       </c>
@@ -34004,7 +33998,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A319" s="49">
         <v>319</v>
       </c>
@@ -34072,7 +34066,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A320" s="49">
         <v>320</v>
       </c>
@@ -34126,7 +34120,7 @@
       <c r="AA320" s="98"/>
       <c r="AB320" s="99"/>
     </row>
-    <row r="321" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321" s="49">
         <v>321</v>
       </c>
@@ -34180,7 +34174,7 @@
       <c r="AA321" s="98"/>
       <c r="AB321" s="99"/>
     </row>
-    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322" s="49">
         <v>322</v>
       </c>
@@ -34234,7 +34228,7 @@
       <c r="AA322" s="98"/>
       <c r="AB322" s="99"/>
     </row>
-    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323" s="49">
         <v>323</v>
       </c>
@@ -34290,7 +34284,7 @@
       <c r="AA323" s="98"/>
       <c r="AB323" s="99"/>
     </row>
-    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324" s="49">
         <v>324</v>
       </c>
@@ -34346,7 +34340,7 @@
       <c r="AA324" s="98"/>
       <c r="AB324" s="99"/>
     </row>
-    <row r="325" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325" s="49">
         <v>325</v>
       </c>
@@ -34402,7 +34396,7 @@
       <c r="AA325" s="98"/>
       <c r="AB325" s="99"/>
     </row>
-    <row r="326" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326" s="49">
         <v>326</v>
       </c>
@@ -34468,7 +34462,7 @@
       <c r="AA326" s="98"/>
       <c r="AB326" s="99"/>
     </row>
-    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327" s="49">
         <v>327</v>
       </c>
@@ -34536,7 +34530,7 @@
       </c>
       <c r="AB327" s="99"/>
     </row>
-    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328" s="49">
         <v>328</v>
       </c>
@@ -34604,7 +34598,7 @@
       </c>
       <c r="AB328" s="99"/>
     </row>
-    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329" s="49">
         <v>329</v>
       </c>
@@ -34666,7 +34660,7 @@
       <c r="AA329" s="98"/>
       <c r="AB329" s="99"/>
     </row>
-    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A330" s="49">
         <v>330</v>
       </c>
@@ -34722,7 +34716,7 @@
       <c r="AA330" s="98"/>
       <c r="AB330" s="99"/>
     </row>
-    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331" s="49">
         <v>331</v>
       </c>
@@ -34784,7 +34778,7 @@
       <c r="AA331" s="98"/>
       <c r="AB331" s="99"/>
     </row>
-    <row r="332" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A332" s="49">
         <v>332</v>
       </c>
@@ -34840,7 +34834,7 @@
       <c r="AA332" s="98"/>
       <c r="AB332" s="99"/>
     </row>
-    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333" s="49">
         <v>333</v>
       </c>
@@ -34902,7 +34896,7 @@
       <c r="AA333" s="98"/>
       <c r="AB333" s="99"/>
     </row>
-    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334" s="49">
         <v>334</v>
       </c>
@@ -34958,7 +34952,7 @@
       <c r="AA334" s="98"/>
       <c r="AB334" s="99"/>
     </row>
-    <row r="335" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335" s="49">
         <v>335</v>
       </c>
@@ -35020,7 +35014,7 @@
       <c r="AA335" s="98"/>
       <c r="AB335" s="99"/>
     </row>
-    <row r="336" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336" s="49">
         <v>336</v>
       </c>
@@ -35076,7 +35070,7 @@
       <c r="AA336" s="98"/>
       <c r="AB336" s="99"/>
     </row>
-    <row r="337" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A337" s="49">
         <v>337</v>
       </c>
@@ -35132,7 +35126,7 @@
       <c r="AA337" s="98"/>
       <c r="AB337" s="99"/>
     </row>
-    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A338" s="49">
         <v>338</v>
       </c>
@@ -35188,7 +35182,7 @@
       <c r="AA338" s="98"/>
       <c r="AB338" s="99"/>
     </row>
-    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339" s="49">
         <v>339</v>
       </c>
@@ -35254,7 +35248,7 @@
       <c r="AA339" s="98"/>
       <c r="AB339" s="99"/>
     </row>
-    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340" s="49">
         <v>340</v>
       </c>
@@ -35318,7 +35312,7 @@
       <c r="AA340" s="98"/>
       <c r="AB340" s="99"/>
     </row>
-    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341" s="49">
         <v>341</v>
       </c>
@@ -35374,7 +35368,7 @@
       <c r="AA341" s="98"/>
       <c r="AB341" s="99"/>
     </row>
-    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A342" s="49">
         <v>342</v>
       </c>
@@ -35440,7 +35434,7 @@
       <c r="AA342" s="98"/>
       <c r="AB342" s="99"/>
     </row>
-    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A343" s="49">
         <v>343</v>
       </c>
@@ -35502,7 +35496,7 @@
       <c r="AA343" s="98"/>
       <c r="AB343" s="99"/>
     </row>
-    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A344" s="49">
         <v>344</v>
       </c>
@@ -35558,7 +35552,7 @@
       <c r="AA344" s="98"/>
       <c r="AB344" s="99"/>
     </row>
-    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345" s="49">
         <v>345</v>
       </c>
@@ -35614,7 +35608,7 @@
       <c r="AA345" s="98"/>
       <c r="AB345" s="99"/>
     </row>
-    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A346" s="49">
         <v>346</v>
       </c>
@@ -35676,7 +35670,7 @@
       <c r="AA346" s="98"/>
       <c r="AB346" s="99"/>
     </row>
-    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347" s="49">
         <v>347</v>
       </c>
@@ -35732,7 +35726,7 @@
       <c r="AA347" s="98"/>
       <c r="AB347" s="99"/>
     </row>
-    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A348" s="49">
         <v>348</v>
       </c>
@@ -35788,7 +35782,7 @@
       <c r="AA348" s="98"/>
       <c r="AB348" s="99"/>
     </row>
-    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A349" s="49">
         <v>349</v>
       </c>
@@ -37825,8 +37819,8 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="K2:L384">
-    <cfRule type="containsText" dxfId="165" priority="198" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K2)))</formula>
+    <cfRule type="containsText" dxfId="165" priority="195" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="164" priority="197" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K2)))</formula>
@@ -37834,58 +37828,58 @@
     <cfRule type="containsText" dxfId="163" priority="196" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="195" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K2)))</formula>
+    <cfRule type="containsText" dxfId="162" priority="198" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K350:L351">
     <cfRule type="containsText" dxfId="161" priority="188" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="187" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K350)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="185" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K350)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="186" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="185" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K350)))</formula>
+    <cfRule type="containsText" dxfId="158" priority="187" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K351:L352">
-    <cfRule type="containsText" dxfId="157" priority="179" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K351)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="157" priority="177" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="178" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="156" priority="178" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K351)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="179" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K351)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="154" priority="180" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K351)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K352:L352">
-    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
+    <cfRule type="containsText" dxfId="153" priority="173" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="152" priority="174" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="176" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="173" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="174" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="175" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K352:L353">
-    <cfRule type="containsText" dxfId="149" priority="165" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="149" priority="166" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="165" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="166" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="167" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
@@ -37895,20 +37889,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K354:L354">
-    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
+    <cfRule type="containsText" dxfId="145" priority="144" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="141" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="143" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="143" priority="142" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="146" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="150" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
+    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="140" priority="152" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
@@ -37916,8 +37910,8 @@
     <cfRule type="containsText" dxfId="139" priority="151" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="144" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
+    <cfRule type="containsText" dxfId="138" priority="150" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="137" priority="149" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
@@ -37928,142 +37922,142 @@
     <cfRule type="containsText" dxfId="135" priority="147" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K354:L355">
-    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="135" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="131" priority="136" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K355:L355">
-    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="130" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K356:L358 K360:L362 K364:L364 K366:L366 K370:L370 K374:L374">
-    <cfRule type="containsText" dxfId="125" priority="110" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="125" priority="106" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="109" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="124" priority="115" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="114" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="113" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="108" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="121" priority="112" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="107" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="106" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="119" priority="110" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
+    <cfRule type="containsText" dxfId="118" priority="109" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="116" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="117" priority="116" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="115" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="116" priority="107" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="105" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="113" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="112" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="115" priority="108" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
+    <cfRule type="containsText" dxfId="114" priority="105" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K380:L380">
-    <cfRule type="containsText" dxfId="113" priority="24" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="28" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="23" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="22" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="110" priority="23" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="22" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="21" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="28" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="108" priority="24" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="27" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
+    <cfRule type="containsText" dxfId="107" priority="26" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="26" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
+    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K380:L382">
-    <cfRule type="containsText" dxfId="105" priority="32" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="31" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="105" priority="31" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="30" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="104" priority="30" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="29" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="32" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K383:L383">
     <cfRule type="containsText" dxfId="101" priority="20" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="18" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K383:L384">
-    <cfRule type="containsText" dxfId="97" priority="10" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
+    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="96" priority="11" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="12" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K384:L384">
@@ -38093,48 +38087,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="85" priority="193" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="85" priority="194" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="193" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="194" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L353">
-    <cfRule type="containsText" dxfId="83" priority="157" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="83" priority="161" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="153" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="82" priority="160" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="159" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="163" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="164" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="155" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="154" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="153" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="155" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    <cfRule type="containsText" dxfId="75" priority="156" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="154" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="74" priority="158" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="156" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="164" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="163" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="162" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="73" priority="157" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="160" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="159" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="158" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="72" priority="162" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38142,228 +38136,228 @@
     <cfRule type="containsText" dxfId="71" priority="122" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="128" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="70" priority="123" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="124" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="123" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="125" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="124" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="125" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
+    <cfRule type="containsText" dxfId="67" priority="126" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="117" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="65" priority="128" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="119" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="118" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="118" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="120" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="61" priority="120" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="121" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="60" priority="117" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="126" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L359">
-    <cfRule type="containsText" dxfId="59" priority="93" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="59" priority="101" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="94" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="58" priority="102" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="99" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="57" priority="103" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="104" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="98" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="98" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="95" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="53" priority="97" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="96" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="95" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="100" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="94" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="97" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="96" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="48" priority="100" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="103" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="102" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="101" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L363">
     <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="46" priority="84" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="82" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="86" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="42" priority="86" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="84" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="41" priority="92" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="40" priority="91" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="82" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="90" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="88" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="88" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="91" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="36" priority="87" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="92" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L365">
-    <cfRule type="containsText" dxfId="35" priority="70" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="35" priority="69" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="71" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="77" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="76" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="78" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="31" priority="78" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="74" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="79" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="80" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="79" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="72" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="76" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="72" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L367:L369">
     <cfRule type="containsText" dxfId="23" priority="68" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="22" priority="58" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="66" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="19" priority="66" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="18" priority="65" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="17" priority="64" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="63" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="62" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="15" priority="62" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="61" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="14" priority="61" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="60" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="13" priority="60" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="59" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="12" priority="59" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="64" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L380">
-    <cfRule type="containsText" dxfId="11" priority="37" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="38" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="10" priority="36" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="44" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="43" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="42" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="39" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="6" priority="41" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="34" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="35" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="40" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="3" priority="40" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="41" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="39" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="42" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="1" priority="38" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="44" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="43" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="0" priority="37" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -49925,6 +49919,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E58E5AC2F019E44C9CEEE08C47A0F714" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2ed36221075ddc0ddacd5c6eb0f9c59a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d59e940-78e6-46ac-8297-5910defdc610" xmlns:ns3="1b117891-96b0-452b-96aa-717bb8f742f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbf1883b765333a0e0d7f93c8b6da8a9" ns2:_="" ns3:_="">
     <xsd:import namespace="2d59e940-78e6-46ac-8297-5910defdc610"/>
@@ -50119,15 +50122,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -50140,6 +50134,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08AFF0B-4A51-4ADD-8D35-AF609F22F661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C973F18-BD51-4869-AD5D-5C453858A2D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50158,14 +50160,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08AFF0B-4A51-4ADD-8D35-AF609F22F661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC91023D-DE2F-4463-A17C-BE1EEFCB44F4}">
   <ds:schemaRefs>

--- a/Reparos Paiva.xlsx
+++ b/Reparos Paiva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paivaenergiapaivaenergia150.sharepoint.com/sites/paivaenergiaadministrativo/Engenharia/Reparos/dashboard_reparos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paivaenergiapaivaenergia150.sharepoint.com/sites/paivaenergiaadministrativo/Engenharia/Reparos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{B8575399-4DAE-4AC4-BFCE-C4C7D773ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C3227-547A-4565-B983-12DC2E1E7ADC}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="13_ncr:1_{B8575399-4DAE-4AC4-BFCE-C4C7D773ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88CA64F-E74A-4F19-865A-380CD3F5D465}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reparos Paiva" sheetId="54" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5139" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="1107">
   <si>
     <t>SEQ</t>
   </si>
@@ -3387,6 +3387,12 @@
   </si>
   <si>
     <t>Falha intermitente</t>
+  </si>
+  <si>
+    <t>média</t>
+  </si>
+  <si>
+    <t>Scrap</t>
   </si>
 </sst>
 </file>
@@ -4208,7 +4214,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4222,7 +4235,35 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4251,48 +4292,6 @@
         <b/>
         <i val="0"/>
         <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4369,7 +4368,77 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4391,6 +4460,111 @@
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4439,7 +4613,49 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4467,13 +4683,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="3"/>
       </font>
     </dxf>
@@ -4481,7 +4690,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4503,55 +4712,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4607,7 +4767,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4615,6 +4775,13 @@
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4642,168 +4809,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4866,6 +4872,48 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFC00000"/>
       </font>
     </dxf>
@@ -4880,7 +4928,49 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4922,69 +5012,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5013,6 +5040,76 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -5028,6 +5125,20 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -5069,7 +5180,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -5083,14 +5194,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -5153,6 +5264,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5161,6 +5293,27 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -5209,13 +5362,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5224,146 +5370,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -6578,9 +6584,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}" name="Tabela2" displayName="Tabela2" ref="A1:AB384" totalsRowShown="0" headerRowDxfId="217" dataCellStyle="Normal">
-  <autoFilter ref="A1:AB384" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}"/>
+  <autoFilter ref="A1:AB384" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}">
+    <filterColumn colId="5">
+      <filters>
+        <dateGroupItem year="2025" month="8" day="30" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{ED0FBB3D-D2AA-4156-A959-4A0F6CED4684}" name="SEQ" dataDxfId="216" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{52296C68-C138-4D5F-BF3A-B1CEA295081A}" name="PLACA" dataDxfId="215" dataCellStyle="Normal"/>
@@ -6954,8 +6970,8 @@
   <dimension ref="A1:BH384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J290" sqref="J290"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7143,7 +7159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>1</v>
       </c>
@@ -7289,7 +7305,7 @@
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
     </row>
-    <row r="3" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>2</v>
       </c>
@@ -7435,7 +7451,7 @@
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
     </row>
-    <row r="4" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>3</v>
       </c>
@@ -7579,7 +7595,7 @@
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
     </row>
-    <row r="5" spans="1:60" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>4</v>
       </c>
@@ -7725,7 +7741,7 @@
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
     </row>
-    <row r="6" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>5</v>
       </c>
@@ -7869,7 +7885,7 @@
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
     </row>
-    <row r="7" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>6</v>
       </c>
@@ -8020,7 +8036,7 @@
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
     </row>
-    <row r="8" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>7</v>
       </c>
@@ -8169,7 +8185,7 @@
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
     </row>
-    <row r="9" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>8</v>
       </c>
@@ -8318,7 +8334,7 @@
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
     </row>
-    <row r="10" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>9</v>
       </c>
@@ -8465,7 +8481,7 @@
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
     </row>
-    <row r="11" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>10</v>
       </c>
@@ -8610,7 +8626,7 @@
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
     </row>
-    <row r="12" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>11</v>
       </c>
@@ -8753,7 +8769,7 @@
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
     </row>
-    <row r="13" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>12</v>
       </c>
@@ -8898,7 +8914,7 @@
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
     </row>
-    <row r="14" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>13</v>
       </c>
@@ -9047,7 +9063,7 @@
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
     </row>
-    <row r="15" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>14</v>
       </c>
@@ -9194,7 +9210,7 @@
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
     </row>
-    <row r="16" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>15</v>
       </c>
@@ -9337,7 +9353,7 @@
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
     </row>
-    <row r="17" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>16</v>
       </c>
@@ -9475,7 +9491,7 @@
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
     </row>
-    <row r="18" spans="1:60" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>17</v>
       </c>
@@ -9617,7 +9633,7 @@
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
     </row>
-    <row r="19" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>18</v>
       </c>
@@ -9761,7 +9777,7 @@
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
     </row>
-    <row r="20" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>19</v>
       </c>
@@ -9901,7 +9917,7 @@
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
     </row>
-    <row r="21" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>20</v>
       </c>
@@ -10041,7 +10057,7 @@
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
     </row>
-    <row r="22" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>21</v>
       </c>
@@ -10183,7 +10199,7 @@
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
     </row>
-    <row r="23" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>22</v>
       </c>
@@ -10329,7 +10345,7 @@
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
     </row>
-    <row r="24" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>23</v>
       </c>
@@ -10473,7 +10489,7 @@
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
     </row>
-    <row r="25" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>24</v>
       </c>
@@ -10613,7 +10629,7 @@
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
     </row>
-    <row r="26" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>25</v>
       </c>
@@ -10752,7 +10768,7 @@
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
     </row>
-    <row r="27" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>26</v>
       </c>
@@ -10892,7 +10908,7 @@
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
     </row>
-    <row r="28" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
         <v>27</v>
       </c>
@@ -11033,7 +11049,7 @@
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
     </row>
-    <row r="29" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>28</v>
       </c>
@@ -11169,7 +11185,7 @@
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
     </row>
-    <row r="30" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>29</v>
       </c>
@@ -11306,7 +11322,7 @@
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
     </row>
-    <row r="31" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>30</v>
       </c>
@@ -11449,7 +11465,7 @@
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
     </row>
-    <row r="32" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>31</v>
       </c>
@@ -11571,7 +11587,7 @@
       </c>
       <c r="AU32" s="2"/>
     </row>
-    <row r="33" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>32</v>
       </c>
@@ -11700,7 +11716,7 @@
       </c>
       <c r="AU33" s="2"/>
     </row>
-    <row r="34" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>33</v>
       </c>
@@ -11839,7 +11855,7 @@
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
     </row>
-    <row r="35" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>34</v>
       </c>
@@ -11981,7 +11997,7 @@
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
     </row>
-    <row r="36" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>35</v>
       </c>
@@ -12123,7 +12139,7 @@
       <c r="BG36" s="2"/>
       <c r="BH36" s="2"/>
     </row>
-    <row r="37" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>36</v>
       </c>
@@ -12252,7 +12268,7 @@
       </c>
       <c r="AU37" s="2"/>
     </row>
-    <row r="38" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>37</v>
       </c>
@@ -12381,7 +12397,7 @@
       </c>
       <c r="AU38" s="2"/>
     </row>
-    <row r="39" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>38</v>
       </c>
@@ -12515,7 +12531,7 @@
       </c>
       <c r="AU39" s="2"/>
     </row>
-    <row r="40" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>39</v>
       </c>
@@ -12647,7 +12663,7 @@
       </c>
       <c r="AU40" s="2"/>
     </row>
-    <row r="41" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>40</v>
       </c>
@@ -12779,7 +12795,7 @@
       </c>
       <c r="AU41" s="2"/>
     </row>
-    <row r="42" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>41</v>
       </c>
@@ -12909,7 +12925,7 @@
       </c>
       <c r="AU42" s="2"/>
     </row>
-    <row r="43" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
         <v>42</v>
       </c>
@@ -13030,7 +13046,7 @@
       </c>
       <c r="AU43" s="2"/>
     </row>
-    <row r="44" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="49">
         <v>43</v>
       </c>
@@ -13154,7 +13170,7 @@
       </c>
       <c r="AU44" s="2"/>
     </row>
-    <row r="45" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>44</v>
       </c>
@@ -13244,7 +13260,7 @@
       <c r="AT45" s="78"/>
       <c r="AU45" s="2"/>
     </row>
-    <row r="46" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>45</v>
       </c>
@@ -13317,7 +13333,7 @@
       <c r="AT46" s="78"/>
       <c r="AU46" s="2"/>
     </row>
-    <row r="47" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>46</v>
       </c>
@@ -13403,7 +13419,7 @@
       <c r="AT47" s="13"/>
       <c r="AU47" s="2"/>
     </row>
-    <row r="48" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>47</v>
       </c>
@@ -13489,7 +13505,7 @@
       <c r="AT48" s="13"/>
       <c r="AU48" s="2"/>
     </row>
-    <row r="49" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
         <v>48</v>
       </c>
@@ -13575,7 +13591,7 @@
       <c r="AT49" s="13"/>
       <c r="AU49" s="2"/>
     </row>
-    <row r="50" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
         <v>49</v>
       </c>
@@ -13663,7 +13679,7 @@
       <c r="AT50" s="13"/>
       <c r="AU50" s="2"/>
     </row>
-    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>50</v>
       </c>
@@ -13754,7 +13770,7 @@
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
     </row>
-    <row r="52" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
         <v>51</v>
       </c>
@@ -13843,7 +13859,7 @@
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
     </row>
-    <row r="53" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
         <v>52</v>
       </c>
@@ -13931,7 +13947,7 @@
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
     </row>
-    <row r="54" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>53</v>
       </c>
@@ -14017,7 +14033,7 @@
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
     </row>
-    <row r="55" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>54</v>
       </c>
@@ -14103,7 +14119,7 @@
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
     </row>
-    <row r="56" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>55</v>
       </c>
@@ -14188,7 +14204,7 @@
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
     </row>
-    <row r="57" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>56</v>
       </c>
@@ -14277,7 +14293,7 @@
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
     </row>
-    <row r="58" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>57</v>
       </c>
@@ -14368,7 +14384,7 @@
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
     </row>
-    <row r="59" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
         <v>58</v>
       </c>
@@ -14456,7 +14472,7 @@
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
     </row>
-    <row r="60" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>59</v>
       </c>
@@ -14547,7 +14563,7 @@
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
     </row>
-    <row r="61" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
         <v>60</v>
       </c>
@@ -14636,7 +14652,7 @@
       <c r="AT61" s="2"/>
       <c r="AU61" s="2"/>
     </row>
-    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>61</v>
       </c>
@@ -14721,7 +14737,7 @@
       <c r="AT62" s="2"/>
       <c r="AU62" s="2"/>
     </row>
-    <row r="63" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
         <v>62</v>
       </c>
@@ -14814,7 +14830,7 @@
       <c r="AT63" s="2"/>
       <c r="AU63" s="2"/>
     </row>
-    <row r="64" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>63</v>
       </c>
@@ -14904,7 +14920,7 @@
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
     </row>
-    <row r="65" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>64</v>
       </c>
@@ -14993,7 +15009,7 @@
       <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
     </row>
-    <row r="66" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>65</v>
       </c>
@@ -15079,7 +15095,7 @@
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
     </row>
-    <row r="67" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>66</v>
       </c>
@@ -15168,7 +15184,7 @@
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
     </row>
-    <row r="68" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>67</v>
       </c>
@@ -15255,7 +15271,7 @@
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
     </row>
-    <row r="69" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>68</v>
       </c>
@@ -15344,7 +15360,7 @@
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
     </row>
-    <row r="70" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>69</v>
       </c>
@@ -15433,7 +15449,7 @@
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
     </row>
-    <row r="71" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>70</v>
       </c>
@@ -15522,7 +15538,7 @@
       <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
     </row>
-    <row r="72" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>71</v>
       </c>
@@ -15601,7 +15617,7 @@
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
     </row>
-    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
         <v>72</v>
       </c>
@@ -15692,7 +15708,7 @@
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
     </row>
-    <row r="74" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>73</v>
       </c>
@@ -15783,7 +15799,7 @@
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
     </row>
-    <row r="75" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
         <v>74</v>
       </c>
@@ -15869,7 +15885,7 @@
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
     </row>
-    <row r="76" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
         <v>75</v>
       </c>
@@ -15953,7 +15969,7 @@
       <c r="AT76" s="2"/>
       <c r="AU76" s="2"/>
     </row>
-    <row r="77" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49">
         <v>76</v>
       </c>
@@ -16037,7 +16053,7 @@
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
     </row>
-    <row r="78" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
         <v>77</v>
       </c>
@@ -16121,7 +16137,7 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
     </row>
-    <row r="79" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49">
         <v>78</v>
       </c>
@@ -16198,7 +16214,7 @@
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
     </row>
-    <row r="80" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -16277,7 +16293,7 @@
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
     </row>
-    <row r="81" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -16356,7 +16372,7 @@
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
     </row>
-    <row r="82" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -16435,7 +16451,7 @@
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
     </row>
-    <row r="83" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -16514,7 +16530,7 @@
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
     </row>
-    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49">
         <v>83</v>
       </c>
@@ -16593,7 +16609,7 @@
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
     </row>
-    <row r="85" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49">
         <v>84</v>
       </c>
@@ -16672,7 +16688,7 @@
       <c r="AT85" s="2"/>
       <c r="AU85" s="2"/>
     </row>
-    <row r="86" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49">
         <v>85</v>
       </c>
@@ -16751,7 +16767,7 @@
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
     </row>
-    <row r="87" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49">
         <v>86</v>
       </c>
@@ -16832,7 +16848,7 @@
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
     </row>
-    <row r="88" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49">
         <v>87</v>
       </c>
@@ -16920,7 +16936,7 @@
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
     </row>
-    <row r="89" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49">
         <v>88</v>
       </c>
@@ -17010,7 +17026,7 @@
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
     </row>
-    <row r="90" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49">
         <v>89</v>
       </c>
@@ -17097,7 +17113,7 @@
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
     </row>
-    <row r="91" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49">
         <v>90</v>
       </c>
@@ -17181,7 +17197,7 @@
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
     </row>
-    <row r="92" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49">
         <v>91</v>
       </c>
@@ -17265,7 +17281,7 @@
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
     </row>
-    <row r="93" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49">
         <v>92</v>
       </c>
@@ -17349,7 +17365,7 @@
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
     </row>
-    <row r="94" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49">
         <v>93</v>
       </c>
@@ -17435,7 +17451,7 @@
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
     </row>
-    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49">
         <v>94</v>
       </c>
@@ -17517,7 +17533,7 @@
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
     </row>
-    <row r="96" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49">
         <v>95</v>
       </c>
@@ -17610,7 +17626,7 @@
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
     </row>
-    <row r="97" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49">
         <v>96</v>
       </c>
@@ -17703,7 +17719,7 @@
       <c r="AT97" s="2"/>
       <c r="AU97" s="2"/>
     </row>
-    <row r="98" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49">
         <v>97</v>
       </c>
@@ -17789,7 +17805,7 @@
       <c r="AT98" s="2"/>
       <c r="AU98" s="2"/>
     </row>
-    <row r="99" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49">
         <v>98</v>
       </c>
@@ -17873,7 +17889,7 @@
       <c r="AT99" s="2"/>
       <c r="AU99" s="2"/>
     </row>
-    <row r="100" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49">
         <v>99</v>
       </c>
@@ -17957,7 +17973,7 @@
       <c r="AT100" s="2"/>
       <c r="AU100" s="2"/>
     </row>
-    <row r="101" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49">
         <v>100</v>
       </c>
@@ -18042,7 +18058,7 @@
       <c r="AT101" s="2"/>
       <c r="AU101" s="2"/>
     </row>
-    <row r="102" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49">
         <v>101</v>
       </c>
@@ -18123,7 +18139,7 @@
       <c r="AT102" s="2"/>
       <c r="AU102" s="2"/>
     </row>
-    <row r="103" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49">
         <v>102</v>
       </c>
@@ -18204,7 +18220,7 @@
       <c r="AT103" s="2"/>
       <c r="AU103" s="2"/>
     </row>
-    <row r="104" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>103</v>
       </c>
@@ -18283,7 +18299,7 @@
       <c r="AT104" s="2"/>
       <c r="AU104" s="2"/>
     </row>
-    <row r="105" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49">
         <v>104</v>
       </c>
@@ -18369,7 +18385,7 @@
       <c r="AT105" s="2"/>
       <c r="AU105" s="2"/>
     </row>
-    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49">
         <v>105</v>
       </c>
@@ -18451,7 +18467,7 @@
       <c r="AT106" s="2"/>
       <c r="AU106" s="2"/>
     </row>
-    <row r="107" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="49">
         <v>106</v>
       </c>
@@ -18535,7 +18551,7 @@
       <c r="AT107" s="2"/>
       <c r="AU107" s="2"/>
     </row>
-    <row r="108" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="49">
         <v>107</v>
       </c>
@@ -18622,7 +18638,7 @@
       <c r="AT108" s="2"/>
       <c r="AU108" s="2"/>
     </row>
-    <row r="109" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49">
         <v>108</v>
       </c>
@@ -18706,7 +18722,7 @@
       <c r="AT109" s="2"/>
       <c r="AU109" s="2"/>
     </row>
-    <row r="110" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49">
         <v>109</v>
       </c>
@@ -18790,7 +18806,7 @@
       <c r="AT110" s="2"/>
       <c r="AU110" s="2"/>
     </row>
-    <row r="111" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="49">
         <v>110</v>
       </c>
@@ -18874,7 +18890,7 @@
       <c r="AT111" s="2"/>
       <c r="AU111" s="2"/>
     </row>
-    <row r="112" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49">
         <v>111</v>
       </c>
@@ -18958,7 +18974,7 @@
       <c r="AT112" s="2"/>
       <c r="AU112" s="2"/>
     </row>
-    <row r="113" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49">
         <v>112</v>
       </c>
@@ -19042,7 +19058,7 @@
       <c r="AT113" s="2"/>
       <c r="AU113" s="2"/>
     </row>
-    <row r="114" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49">
         <v>113</v>
       </c>
@@ -19126,7 +19142,7 @@
       <c r="AT114" s="2"/>
       <c r="AU114" s="2"/>
     </row>
-    <row r="115" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="49">
         <v>114</v>
       </c>
@@ -19219,7 +19235,7 @@
       <c r="AT115" s="2"/>
       <c r="AU115" s="2"/>
     </row>
-    <row r="116" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49">
         <v>115</v>
       </c>
@@ -19296,7 +19312,7 @@
       <c r="AT116" s="2"/>
       <c r="AU116" s="2"/>
     </row>
-    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="49">
         <v>116</v>
       </c>
@@ -19389,7 +19405,7 @@
       <c r="AT117" s="2"/>
       <c r="AU117" s="2"/>
     </row>
-    <row r="118" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49">
         <v>117</v>
       </c>
@@ -19479,7 +19495,7 @@
       <c r="AT118" s="2"/>
       <c r="AU118" s="2"/>
     </row>
-    <row r="119" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49">
         <v>118</v>
       </c>
@@ -19558,7 +19574,7 @@
       <c r="AT119" s="2"/>
       <c r="AU119" s="2"/>
     </row>
-    <row r="120" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49">
         <v>119</v>
       </c>
@@ -19642,7 +19658,7 @@
       <c r="AT120" s="2"/>
       <c r="AU120" s="2"/>
     </row>
-    <row r="121" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="49">
         <v>120</v>
       </c>
@@ -19737,7 +19753,7 @@
       <c r="AT121" s="2"/>
       <c r="AU121" s="2"/>
     </row>
-    <row r="122" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="49">
         <v>121</v>
       </c>
@@ -19823,7 +19839,7 @@
       <c r="AT122" s="2"/>
       <c r="AU122" s="2"/>
     </row>
-    <row r="123" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49">
         <v>122</v>
       </c>
@@ -19915,7 +19931,7 @@
       <c r="AT123" s="2"/>
       <c r="AU123" s="2"/>
     </row>
-    <row r="124" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49">
         <v>123</v>
       </c>
@@ -20007,7 +20023,7 @@
       <c r="AT124" s="2"/>
       <c r="AU124" s="2"/>
     </row>
-    <row r="125" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="49">
         <v>124</v>
       </c>
@@ -20093,7 +20109,7 @@
       <c r="AT125" s="2"/>
       <c r="AU125" s="2"/>
     </row>
-    <row r="126" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="49">
         <v>125</v>
       </c>
@@ -20177,7 +20193,7 @@
       <c r="AT126" s="2"/>
       <c r="AU126" s="2"/>
     </row>
-    <row r="127" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="49">
         <v>126</v>
       </c>
@@ -20259,7 +20275,7 @@
       <c r="AT127" s="2"/>
       <c r="AU127" s="2"/>
     </row>
-    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="49">
         <v>127</v>
       </c>
@@ -20341,7 +20357,7 @@
       <c r="AT128" s="2"/>
       <c r="AU128" s="2"/>
     </row>
-    <row r="129" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="49">
         <v>128</v>
       </c>
@@ -20423,7 +20439,7 @@
       <c r="AT129" s="2"/>
       <c r="AU129" s="2"/>
     </row>
-    <row r="130" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="49">
         <v>129</v>
       </c>
@@ -20508,7 +20524,7 @@
       <c r="AT130" s="2"/>
       <c r="AU130" s="2"/>
     </row>
-    <row r="131" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="49">
         <v>130</v>
       </c>
@@ -20593,7 +20609,7 @@
       <c r="AT131" s="2"/>
       <c r="AU131" s="2"/>
     </row>
-    <row r="132" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="49">
         <v>131</v>
       </c>
@@ -20678,7 +20694,7 @@
       <c r="AT132" s="2"/>
       <c r="AU132" s="2"/>
     </row>
-    <row r="133" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="49">
         <v>132</v>
       </c>
@@ -20763,7 +20779,7 @@
       <c r="AT133" s="2"/>
       <c r="AU133" s="2"/>
     </row>
-    <row r="134" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="49">
         <v>133</v>
       </c>
@@ -20848,7 +20864,7 @@
       <c r="AT134" s="2"/>
       <c r="AU134" s="2"/>
     </row>
-    <row r="135" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="49">
         <v>134</v>
       </c>
@@ -20939,7 +20955,7 @@
       <c r="AT135" s="2"/>
       <c r="AU135" s="2"/>
     </row>
-    <row r="136" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="49">
         <v>135</v>
       </c>
@@ -21023,7 +21039,7 @@
       <c r="AT136" s="2"/>
       <c r="AU136" s="2"/>
     </row>
-    <row r="137" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="49">
         <v>136</v>
       </c>
@@ -21107,7 +21123,7 @@
       <c r="AT137" s="2"/>
       <c r="AU137" s="2"/>
     </row>
-    <row r="138" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="49">
         <v>137</v>
       </c>
@@ -21191,7 +21207,7 @@
       <c r="AT138" s="2"/>
       <c r="AU138" s="2"/>
     </row>
-    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="49">
         <v>138</v>
       </c>
@@ -21275,7 +21291,7 @@
       <c r="AT139" s="2"/>
       <c r="AU139" s="2"/>
     </row>
-    <row r="140" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="49">
         <v>139</v>
       </c>
@@ -21360,7 +21376,7 @@
       <c r="AT140" s="2"/>
       <c r="AU140" s="2"/>
     </row>
-    <row r="141" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="49">
         <v>140</v>
       </c>
@@ -21445,7 +21461,7 @@
       <c r="AT141" s="2"/>
       <c r="AU141" s="2"/>
     </row>
-    <row r="142" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="49">
         <v>141</v>
       </c>
@@ -21530,7 +21546,7 @@
       <c r="AT142" s="2"/>
       <c r="AU142" s="2"/>
     </row>
-    <row r="143" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="49">
         <v>142</v>
       </c>
@@ -21614,7 +21630,7 @@
       <c r="AT143" s="2"/>
       <c r="AU143" s="2"/>
     </row>
-    <row r="144" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="49">
         <v>143</v>
       </c>
@@ -21685,7 +21701,7 @@
       <c r="AT144" s="2"/>
       <c r="AU144" s="2"/>
     </row>
-    <row r="145" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="49">
         <v>144</v>
       </c>
@@ -21756,7 +21772,7 @@
       <c r="AT145" s="2"/>
       <c r="AU145" s="2"/>
     </row>
-    <row r="146" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="49">
         <v>145</v>
       </c>
@@ -21840,7 +21856,7 @@
       <c r="AT146" s="2"/>
       <c r="AU146" s="2"/>
     </row>
-    <row r="147" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="49">
         <v>146</v>
       </c>
@@ -21926,7 +21942,7 @@
       <c r="AT147" s="2"/>
       <c r="AU147" s="2"/>
     </row>
-    <row r="148" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="49">
         <v>147</v>
       </c>
@@ -22006,7 +22022,7 @@
       <c r="AT148" s="2"/>
       <c r="AU148" s="2"/>
     </row>
-    <row r="149" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="49">
         <v>148</v>
       </c>
@@ -22094,7 +22110,7 @@
       <c r="AT149" s="2"/>
       <c r="AU149" s="2"/>
     </row>
-    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="49">
         <v>149</v>
       </c>
@@ -22177,7 +22193,7 @@
       <c r="AT150" s="2"/>
       <c r="AU150" s="2"/>
     </row>
-    <row r="151" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="49">
         <v>150</v>
       </c>
@@ -22263,7 +22279,7 @@
       <c r="AT151" s="2"/>
       <c r="AU151" s="2"/>
     </row>
-    <row r="152" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="49">
         <v>151</v>
       </c>
@@ -22349,7 +22365,7 @@
       <c r="AT152" s="2"/>
       <c r="AU152" s="2"/>
     </row>
-    <row r="153" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="49">
         <v>152</v>
       </c>
@@ -22439,7 +22455,7 @@
       <c r="AT153" s="2"/>
       <c r="AU153" s="2"/>
     </row>
-    <row r="154" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="49">
         <v>153</v>
       </c>
@@ -22523,7 +22539,7 @@
       <c r="AT154" s="2"/>
       <c r="AU154" s="2"/>
     </row>
-    <row r="155" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="49">
         <v>154</v>
       </c>
@@ -22609,7 +22625,7 @@
       <c r="AT155" s="2"/>
       <c r="AU155" s="2"/>
     </row>
-    <row r="156" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="49">
         <v>155</v>
       </c>
@@ -22693,7 +22709,7 @@
       <c r="AT156" s="2"/>
       <c r="AU156" s="2"/>
     </row>
-    <row r="157" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="49">
         <v>156</v>
       </c>
@@ -22781,7 +22797,7 @@
       <c r="AT157" s="2"/>
       <c r="AU157" s="2"/>
     </row>
-    <row r="158" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="49">
         <v>157</v>
       </c>
@@ -22867,7 +22883,7 @@
       <c r="AT158" s="2"/>
       <c r="AU158" s="2"/>
     </row>
-    <row r="159" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="49">
         <v>158</v>
       </c>
@@ -22953,7 +22969,7 @@
       <c r="AT159" s="2"/>
       <c r="AU159" s="2"/>
     </row>
-    <row r="160" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="49">
         <v>159</v>
       </c>
@@ -23039,7 +23055,7 @@
       <c r="AT160" s="2"/>
       <c r="AU160" s="2"/>
     </row>
-    <row r="161" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="49">
         <v>160</v>
       </c>
@@ -23120,7 +23136,7 @@
       <c r="AT161" s="2"/>
       <c r="AU161" s="2"/>
     </row>
-    <row r="162" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="49">
         <v>161</v>
       </c>
@@ -23201,7 +23217,7 @@
       <c r="AT162" s="2"/>
       <c r="AU162" s="2"/>
     </row>
-    <row r="163" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="49">
         <v>162</v>
       </c>
@@ -23285,7 +23301,7 @@
       <c r="AT163" s="2"/>
       <c r="AU163" s="2"/>
     </row>
-    <row r="164" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="49">
         <v>163</v>
       </c>
@@ -23369,7 +23385,7 @@
       <c r="AT164" s="2"/>
       <c r="AU164" s="2"/>
     </row>
-    <row r="165" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="49">
         <v>164</v>
       </c>
@@ -23453,7 +23469,7 @@
       <c r="AT165" s="2"/>
       <c r="AU165" s="2"/>
     </row>
-    <row r="166" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="49">
         <v>165</v>
       </c>
@@ -23544,7 +23560,7 @@
       <c r="AT166" s="2"/>
       <c r="AU166" s="2"/>
     </row>
-    <row r="167" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="49">
         <v>166</v>
       </c>
@@ -23632,7 +23648,7 @@
       <c r="AT167" s="2"/>
       <c r="AU167" s="2"/>
     </row>
-    <row r="168" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="49">
         <v>167</v>
       </c>
@@ -23716,7 +23732,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="49">
         <v>168</v>
       </c>
@@ -23804,7 +23820,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="49">
         <v>169</v>
       </c>
@@ -23887,7 +23903,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="49">
         <v>170</v>
       </c>
@@ -23975,7 +23991,7 @@
       <c r="AT171" s="2"/>
       <c r="AU171" s="2"/>
     </row>
-    <row r="172" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="49">
         <v>171</v>
       </c>
@@ -24059,7 +24075,7 @@
       <c r="AT172" s="2"/>
       <c r="AU172" s="2"/>
     </row>
-    <row r="173" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="49">
         <v>172</v>
       </c>
@@ -24144,7 +24160,7 @@
       <c r="AT173" s="2"/>
       <c r="AU173" s="2"/>
     </row>
-    <row r="174" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="49">
         <v>173</v>
       </c>
@@ -24224,7 +24240,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="49">
         <v>174</v>
       </c>
@@ -24312,7 +24328,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="49">
         <v>175</v>
       </c>
@@ -24379,7 +24395,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="49">
         <v>176</v>
       </c>
@@ -24446,7 +24462,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="49">
         <v>177</v>
       </c>
@@ -24513,7 +24529,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="179" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="49">
         <v>178</v>
       </c>
@@ -24601,7 +24617,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="49">
         <v>179</v>
       </c>
@@ -24683,7 +24699,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="49">
         <v>180</v>
       </c>
@@ -24765,7 +24781,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="49">
         <v>181</v>
       </c>
@@ -24836,7 +24852,7 @@
       </c>
       <c r="AC182" s="103"/>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="49">
         <v>182</v>
       </c>
@@ -24909,7 +24925,7 @@
       </c>
       <c r="AC183" s="103"/>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="49">
         <v>183</v>
       </c>
@@ -24972,7 +24988,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="49">
         <v>184</v>
       </c>
@@ -25043,7 +25059,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="49">
         <v>185</v>
       </c>
@@ -25112,7 +25128,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="49">
         <v>186</v>
       </c>
@@ -25180,7 +25196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="49">
         <v>187</v>
       </c>
@@ -25251,7 +25267,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="49">
         <v>188</v>
       </c>
@@ -25327,7 +25343,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="49">
         <v>189</v>
       </c>
@@ -25403,7 +25419,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="49">
         <v>190</v>
       </c>
@@ -25472,7 +25488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="49">
         <v>191</v>
       </c>
@@ -25536,7 +25552,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="49">
         <v>192</v>
       </c>
@@ -25600,7 +25616,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="49">
         <v>193</v>
       </c>
@@ -25675,7 +25691,7 @@
       </c>
       <c r="AC194" s="103"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="49">
         <v>194</v>
       </c>
@@ -25737,7 +25753,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="49">
         <v>195</v>
       </c>
@@ -25803,7 +25819,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="49">
         <v>196</v>
       </c>
@@ -25871,7 +25887,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="49">
         <v>198</v>
       </c>
@@ -25935,7 +25951,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="49">
         <v>299</v>
       </c>
@@ -25989,7 +26005,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="49">
         <v>300</v>
       </c>
@@ -26047,7 +26063,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="49">
         <v>200</v>
       </c>
@@ -26118,7 +26134,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="49">
         <v>201</v>
       </c>
@@ -26183,7 +26199,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="49">
         <v>202</v>
       </c>
@@ -26247,7 +26263,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="49">
         <v>203</v>
       </c>
@@ -26314,7 +26330,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="49">
         <v>204</v>
       </c>
@@ -26379,7 +26395,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="49">
         <v>205</v>
       </c>
@@ -26444,7 +26460,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="49">
         <v>206</v>
       </c>
@@ -26509,7 +26525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="49">
         <v>207</v>
       </c>
@@ -26574,7 +26590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="49">
         <v>208</v>
       </c>
@@ -26639,7 +26655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="49">
         <v>209</v>
       </c>
@@ -26710,7 +26726,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="49">
         <v>210</v>
       </c>
@@ -26775,7 +26791,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="49">
         <v>211</v>
       </c>
@@ -26842,7 +26858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="49">
         <v>212</v>
       </c>
@@ -26915,7 +26931,7 @@
       </c>
       <c r="AC213" s="103"/>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="49">
         <v>213</v>
       </c>
@@ -26988,7 +27004,7 @@
       </c>
       <c r="AC214" s="103"/>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="49">
         <v>214</v>
       </c>
@@ -27051,7 +27067,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="49">
         <v>215</v>
       </c>
@@ -27121,7 +27137,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="49">
         <v>216</v>
       </c>
@@ -27192,7 +27208,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="49">
         <v>217</v>
       </c>
@@ -27260,7 +27276,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="49">
         <v>218</v>
       </c>
@@ -27325,7 +27341,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="49">
         <v>219</v>
       </c>
@@ -27385,7 +27401,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="49">
         <v>220</v>
       </c>
@@ -27450,7 +27466,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="49">
         <v>221</v>
       </c>
@@ -27520,7 +27536,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="49">
         <v>222</v>
       </c>
@@ -27587,7 +27603,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="49">
         <v>223</v>
       </c>
@@ -27661,7 +27677,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="49">
         <v>224</v>
       </c>
@@ -27733,7 +27749,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="49">
         <v>225</v>
       </c>
@@ -27798,7 +27814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="49">
         <v>226</v>
       </c>
@@ -27860,7 +27876,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="49">
         <v>227</v>
       </c>
@@ -27927,7 +27943,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="49">
         <v>228</v>
       </c>
@@ -27997,7 +28013,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="49">
         <v>229</v>
       </c>
@@ -28067,7 +28083,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="49">
         <v>230</v>
       </c>
@@ -28141,7 +28157,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="49">
         <v>231</v>
       </c>
@@ -28206,7 +28222,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="49">
         <v>232</v>
       </c>
@@ -28280,7 +28296,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="49">
         <v>233</v>
       </c>
@@ -28348,7 +28364,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="49">
         <v>234</v>
       </c>
@@ -28420,7 +28436,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="49">
         <v>235</v>
       </c>
@@ -28487,7 +28503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="49">
         <v>236</v>
       </c>
@@ -28553,7 +28569,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="49">
         <v>237</v>
       </c>
@@ -28619,7 +28635,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="49">
         <v>238</v>
       </c>
@@ -28695,7 +28711,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="49">
         <v>239</v>
       </c>
@@ -28767,7 +28783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="49">
         <v>240</v>
       </c>
@@ -28837,7 +28853,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="49">
         <v>241</v>
       </c>
@@ -28911,7 +28927,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="49">
         <v>242</v>
       </c>
@@ -28985,7 +29001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="49">
         <v>243</v>
       </c>
@@ -29055,7 +29071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="49">
         <v>244</v>
       </c>
@@ -29129,7 +29145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="49">
         <v>245</v>
       </c>
@@ -29199,7 +29215,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="49">
         <v>246</v>
       </c>
@@ -29270,7 +29286,7 @@
       </c>
       <c r="AC247" s="107"/>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
         <v>247</v>
       </c>
@@ -29341,7 +29357,7 @@
       </c>
       <c r="AC248" s="110"/>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="49">
         <v>248</v>
       </c>
@@ -29415,7 +29431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="49">
         <v>249</v>
       </c>
@@ -29489,7 +29505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="49">
         <v>250</v>
       </c>
@@ -29559,7 +29575,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="49">
         <v>251</v>
       </c>
@@ -29633,7 +29649,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="49">
         <v>252</v>
       </c>
@@ -29702,7 +29718,7 @@
       </c>
       <c r="AC253" s="110"/>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="49">
         <v>253</v>
       </c>
@@ -29771,7 +29787,7 @@
       </c>
       <c r="AC254" s="110"/>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="49">
         <v>254</v>
       </c>
@@ -29845,7 +29861,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="49">
         <v>255</v>
       </c>
@@ -29911,7 +29927,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="49">
         <v>256</v>
       </c>
@@ -29977,7 +29993,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="49">
         <v>257</v>
       </c>
@@ -30043,7 +30059,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="49">
         <v>258</v>
       </c>
@@ -30111,7 +30127,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="49">
         <v>259</v>
       </c>
@@ -30181,7 +30197,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="49">
         <v>260</v>
       </c>
@@ -30247,7 +30263,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="49">
         <v>261</v>
       </c>
@@ -30309,7 +30325,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="49">
         <v>262</v>
       </c>
@@ -30375,7 +30391,7 @@
       <c r="AA263" s="98"/>
       <c r="AB263" s="99"/>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="49">
         <v>263</v>
       </c>
@@ -30443,7 +30459,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="49">
         <v>264</v>
       </c>
@@ -30517,7 +30533,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="49">
         <v>265</v>
       </c>
@@ -30591,7 +30607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="49">
         <v>266</v>
       </c>
@@ -30661,7 +30677,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="49">
         <v>267</v>
       </c>
@@ -30731,7 +30747,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="49">
         <v>268</v>
       </c>
@@ -30801,7 +30817,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="49">
         <v>269</v>
       </c>
@@ -30869,7 +30885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="49">
         <v>270</v>
       </c>
@@ -30939,7 +30955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="49">
         <v>271</v>
       </c>
@@ -31011,7 +31027,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="49">
         <v>272</v>
       </c>
@@ -31079,7 +31095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="49">
         <v>273</v>
       </c>
@@ -31141,7 +31157,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="49">
         <v>274</v>
       </c>
@@ -31213,7 +31229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="49">
         <v>275</v>
       </c>
@@ -31283,7 +31299,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="49">
         <v>276</v>
       </c>
@@ -31349,7 +31365,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="49">
         <v>277</v>
       </c>
@@ -31415,7 +31431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="49">
         <v>278</v>
       </c>
@@ -31483,7 +31499,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="49">
         <v>279</v>
       </c>
@@ -31551,7 +31567,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="49">
         <v>280</v>
       </c>
@@ -31611,7 +31627,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="49">
         <v>281</v>
       </c>
@@ -31671,7 +31687,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="49">
         <v>282</v>
       </c>
@@ -31735,7 +31751,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="49">
         <v>283</v>
       </c>
@@ -31793,7 +31809,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="49">
         <v>284</v>
       </c>
@@ -31861,7 +31877,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="49">
         <v>285</v>
       </c>
@@ -31921,7 +31937,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="49">
         <v>286</v>
       </c>
@@ -31987,7 +32003,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="49">
         <v>287</v>
       </c>
@@ -32051,7 +32067,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="49">
         <v>288</v>
       </c>
@@ -32122,7 +32138,7 @@
       </c>
       <c r="AC289" s="107"/>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="49">
         <v>289</v>
       </c>
@@ -32186,7 +32202,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="49">
         <v>290</v>
       </c>
@@ -32252,7 +32268,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="49">
         <v>291</v>
       </c>
@@ -32318,7 +32334,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="49">
         <v>292</v>
       </c>
@@ -32384,7 +32400,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="49">
         <v>293</v>
       </c>
@@ -32454,7 +32470,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="49">
         <v>294</v>
       </c>
@@ -32520,7 +32536,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="49">
         <v>295</v>
       </c>
@@ -32588,7 +32604,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="49">
         <v>296</v>
       </c>
@@ -32656,7 +32672,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="49">
         <v>297</v>
       </c>
@@ -32720,7 +32736,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="49">
         <v>197</v>
       </c>
@@ -32778,7 +32794,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="49">
         <v>199</v>
       </c>
@@ -32842,7 +32858,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="49">
         <v>298</v>
       </c>
@@ -32900,7 +32916,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="49">
         <v>301</v>
       </c>
@@ -32968,7 +32984,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="49">
         <v>302</v>
       </c>
@@ -33036,7 +33052,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="49">
         <v>303</v>
       </c>
@@ -33096,7 +33112,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="49">
         <v>304</v>
       </c>
@@ -33156,7 +33172,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="49">
         <v>305</v>
       </c>
@@ -33216,7 +33232,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="49">
         <v>306</v>
       </c>
@@ -33280,7 +33296,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="49">
         <v>307</v>
       </c>
@@ -33348,7 +33364,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="49">
         <v>308</v>
       </c>
@@ -33408,7 +33424,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="49">
         <v>309</v>
       </c>
@@ -33474,7 +33490,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="49">
         <v>310</v>
       </c>
@@ -33538,7 +33554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="49">
         <v>311</v>
       </c>
@@ -33604,7 +33620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="49">
         <v>312</v>
       </c>
@@ -33674,7 +33690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="49">
         <v>313</v>
       </c>
@@ -33736,7 +33752,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="49">
         <v>314</v>
       </c>
@@ -33804,7 +33820,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="49">
         <v>315</v>
       </c>
@@ -33872,7 +33888,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="49">
         <v>316</v>
       </c>
@@ -33932,7 +33948,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="49">
         <v>318</v>
       </c>
@@ -33998,7 +34014,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="49">
         <v>319</v>
       </c>
@@ -34066,7 +34082,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="49">
         <v>320</v>
       </c>
@@ -34120,7 +34136,7 @@
       <c r="AA320" s="98"/>
       <c r="AB320" s="99"/>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="49">
         <v>321</v>
       </c>
@@ -34174,7 +34190,7 @@
       <c r="AA321" s="98"/>
       <c r="AB321" s="99"/>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="49">
         <v>322</v>
       </c>
@@ -34228,7 +34244,7 @@
       <c r="AA322" s="98"/>
       <c r="AB322" s="99"/>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="49">
         <v>323</v>
       </c>
@@ -34284,7 +34300,7 @@
       <c r="AA323" s="98"/>
       <c r="AB323" s="99"/>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="49">
         <v>324</v>
       </c>
@@ -34340,7 +34356,7 @@
       <c r="AA324" s="98"/>
       <c r="AB324" s="99"/>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="49">
         <v>325</v>
       </c>
@@ -34396,7 +34412,7 @@
       <c r="AA325" s="98"/>
       <c r="AB325" s="99"/>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="49">
         <v>326</v>
       </c>
@@ -34462,7 +34478,7 @@
       <c r="AA326" s="98"/>
       <c r="AB326" s="99"/>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="49">
         <v>327</v>
       </c>
@@ -34530,7 +34546,7 @@
       </c>
       <c r="AB327" s="99"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="49">
         <v>328</v>
       </c>
@@ -34598,7 +34614,7 @@
       </c>
       <c r="AB328" s="99"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="49">
         <v>329</v>
       </c>
@@ -34660,7 +34676,7 @@
       <c r="AA329" s="98"/>
       <c r="AB329" s="99"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="49">
         <v>330</v>
       </c>
@@ -34716,7 +34732,7 @@
       <c r="AA330" s="98"/>
       <c r="AB330" s="99"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="49">
         <v>331</v>
       </c>
@@ -34778,7 +34794,7 @@
       <c r="AA331" s="98"/>
       <c r="AB331" s="99"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="49">
         <v>332</v>
       </c>
@@ -34834,7 +34850,7 @@
       <c r="AA332" s="98"/>
       <c r="AB332" s="99"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="49">
         <v>333</v>
       </c>
@@ -34896,7 +34912,7 @@
       <c r="AA333" s="98"/>
       <c r="AB333" s="99"/>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="49">
         <v>334</v>
       </c>
@@ -34952,7 +34968,7 @@
       <c r="AA334" s="98"/>
       <c r="AB334" s="99"/>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="49">
         <v>335</v>
       </c>
@@ -35014,7 +35030,7 @@
       <c r="AA335" s="98"/>
       <c r="AB335" s="99"/>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="49">
         <v>336</v>
       </c>
@@ -35070,7 +35086,7 @@
       <c r="AA336" s="98"/>
       <c r="AB336" s="99"/>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="49">
         <v>337</v>
       </c>
@@ -35126,7 +35142,7 @@
       <c r="AA337" s="98"/>
       <c r="AB337" s="99"/>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="49">
         <v>338</v>
       </c>
@@ -35182,7 +35198,7 @@
       <c r="AA338" s="98"/>
       <c r="AB338" s="99"/>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="49">
         <v>339</v>
       </c>
@@ -35248,7 +35264,7 @@
       <c r="AA339" s="98"/>
       <c r="AB339" s="99"/>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="49">
         <v>340</v>
       </c>
@@ -35312,7 +35328,7 @@
       <c r="AA340" s="98"/>
       <c r="AB340" s="99"/>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="49">
         <v>341</v>
       </c>
@@ -35368,7 +35384,7 @@
       <c r="AA341" s="98"/>
       <c r="AB341" s="99"/>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="49">
         <v>342</v>
       </c>
@@ -35434,7 +35450,7 @@
       <c r="AA342" s="98"/>
       <c r="AB342" s="99"/>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="49">
         <v>343</v>
       </c>
@@ -35496,7 +35512,7 @@
       <c r="AA343" s="98"/>
       <c r="AB343" s="99"/>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="49">
         <v>344</v>
       </c>
@@ -35552,7 +35568,7 @@
       <c r="AA344" s="98"/>
       <c r="AB344" s="99"/>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="49">
         <v>345</v>
       </c>
@@ -35608,7 +35624,7 @@
       <c r="AA345" s="98"/>
       <c r="AB345" s="99"/>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="49">
         <v>346</v>
       </c>
@@ -35670,7 +35686,7 @@
       <c r="AA346" s="98"/>
       <c r="AB346" s="99"/>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="49">
         <v>347</v>
       </c>
@@ -35726,7 +35742,7 @@
       <c r="AA347" s="98"/>
       <c r="AB347" s="99"/>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="49">
         <v>348</v>
       </c>
@@ -35782,7 +35798,7 @@
       <c r="AA348" s="98"/>
       <c r="AB348" s="99"/>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="49">
         <v>349</v>
       </c>
@@ -35851,7 +35867,9 @@
       <c r="D350" s="49" t="s">
         <v>1017</v>
       </c>
-      <c r="E350" s="49"/>
+      <c r="E350" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F350" s="50">
         <v>45899</v>
       </c>
@@ -35861,7 +35879,9 @@
         <v>3</v>
       </c>
       <c r="I350" s="49"/>
-      <c r="J350" s="50"/>
+      <c r="J350" s="50" t="s">
+        <v>1106</v>
+      </c>
       <c r="K350" s="49" t="str" cm="1">
         <f t="array" ref="K350">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Sem Reparo</v>
@@ -35907,7 +35927,9 @@
       <c r="D351" s="49" t="s">
         <v>1018</v>
       </c>
-      <c r="E351" s="49"/>
+      <c r="E351" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F351" s="50">
         <v>45899</v>
       </c>
@@ -35917,7 +35939,9 @@
         <v>3</v>
       </c>
       <c r="I351" s="49"/>
-      <c r="J351" s="50"/>
+      <c r="J351" s="50" t="s">
+        <v>1106</v>
+      </c>
       <c r="K351" s="49" t="str" cm="1">
         <f t="array" ref="K351">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Sem Reparo</v>
@@ -35963,7 +35987,9 @@
       <c r="D352" s="49" t="s">
         <v>1019</v>
       </c>
-      <c r="E352" s="49"/>
+      <c r="E352" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F352" s="50">
         <v>45899</v>
       </c>
@@ -35973,7 +35999,9 @@
         <v>3</v>
       </c>
       <c r="I352" s="49"/>
-      <c r="J352" s="50"/>
+      <c r="J352" s="50">
+        <v>45912</v>
+      </c>
       <c r="K352" s="49" t="str" cm="1">
         <f t="array" ref="K352">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36019,7 +36047,9 @@
       <c r="D353" s="49" t="s">
         <v>1021</v>
       </c>
-      <c r="E353" s="49"/>
+      <c r="E353" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F353" s="50">
         <v>45899</v>
       </c>
@@ -36029,7 +36059,9 @@
         <v>3</v>
       </c>
       <c r="I353" s="49"/>
-      <c r="J353" s="50"/>
+      <c r="J353" s="50">
+        <v>45912</v>
+      </c>
       <c r="K353" s="49" t="str" cm="1">
         <f t="array" ref="K353">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36075,7 +36107,9 @@
       <c r="D354" s="49" t="s">
         <v>1023</v>
       </c>
-      <c r="E354" s="49"/>
+      <c r="E354" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F354" s="50">
         <v>45899</v>
       </c>
@@ -36085,7 +36119,9 @@
         <v>3</v>
       </c>
       <c r="I354" s="49"/>
-      <c r="J354" s="50"/>
+      <c r="J354" s="50">
+        <v>45912</v>
+      </c>
       <c r="K354" s="49" t="str" cm="1">
         <f t="array" ref="K354">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36131,7 +36167,9 @@
       <c r="D355" s="49" t="s">
         <v>1024</v>
       </c>
-      <c r="E355" s="49"/>
+      <c r="E355" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F355" s="50">
         <v>45899</v>
       </c>
@@ -36141,7 +36179,9 @@
         <v>3</v>
       </c>
       <c r="I355" s="49"/>
-      <c r="J355" s="50"/>
+      <c r="J355" s="50">
+        <v>45912</v>
+      </c>
       <c r="K355" s="49" t="str" cm="1">
         <f t="array" ref="K355">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36187,7 +36227,9 @@
       <c r="D356" s="49" t="s">
         <v>1025</v>
       </c>
-      <c r="E356" s="49"/>
+      <c r="E356" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F356" s="50">
         <v>45899</v>
       </c>
@@ -36197,7 +36239,9 @@
         <v>3</v>
       </c>
       <c r="I356" s="49"/>
-      <c r="J356" s="50"/>
+      <c r="J356" s="50">
+        <v>45912</v>
+      </c>
       <c r="K356" s="49" t="str" cm="1">
         <f t="array" ref="K356">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36243,7 +36287,9 @@
       <c r="D357" s="49" t="s">
         <v>1027</v>
       </c>
-      <c r="E357" s="49"/>
+      <c r="E357" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F357" s="50">
         <v>45899</v>
       </c>
@@ -36253,7 +36299,9 @@
         <v>3</v>
       </c>
       <c r="I357" s="49"/>
-      <c r="J357" s="50"/>
+      <c r="J357" s="50" t="s">
+        <v>1106</v>
+      </c>
       <c r="K357" s="49" t="str" cm="1">
         <f t="array" ref="K357">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Sem Reparo</v>
@@ -36299,7 +36347,9 @@
       <c r="D358" s="49" t="s">
         <v>1028</v>
       </c>
-      <c r="E358" s="49"/>
+      <c r="E358" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F358" s="50">
         <v>45899</v>
       </c>
@@ -36309,7 +36359,9 @@
         <v>3</v>
       </c>
       <c r="I358" s="49"/>
-      <c r="J358" s="50"/>
+      <c r="J358" s="50">
+        <v>45912</v>
+      </c>
       <c r="K358" s="49" t="str" cm="1">
         <f t="array" ref="K358">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36355,7 +36407,9 @@
       <c r="D359" s="49" t="s">
         <v>912</v>
       </c>
-      <c r="E359" s="49"/>
+      <c r="E359" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F359" s="50">
         <v>45899</v>
       </c>
@@ -36365,7 +36419,9 @@
         <v>3</v>
       </c>
       <c r="I359" s="49"/>
-      <c r="J359" s="50"/>
+      <c r="J359" s="50">
+        <v>45912</v>
+      </c>
       <c r="K359" s="49" t="str" cm="1">
         <f t="array" ref="K359">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -36411,7 +36467,9 @@
       <c r="D360" s="49" t="s">
         <v>1031</v>
       </c>
-      <c r="E360" s="49"/>
+      <c r="E360" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F360" s="50">
         <v>45899</v>
       </c>
@@ -36421,7 +36479,9 @@
         <v>3</v>
       </c>
       <c r="I360" s="49"/>
-      <c r="J360" s="50"/>
+      <c r="J360" s="50">
+        <v>45912</v>
+      </c>
       <c r="K360" s="49" t="str" cm="1">
         <f t="array" ref="K360">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36467,7 +36527,9 @@
       <c r="D361" s="49" t="s">
         <v>1032</v>
       </c>
-      <c r="E361" s="49"/>
+      <c r="E361" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F361" s="50">
         <v>45899</v>
       </c>
@@ -36477,7 +36539,9 @@
         <v>3</v>
       </c>
       <c r="I361" s="49"/>
-      <c r="J361" s="50"/>
+      <c r="J361" s="50">
+        <v>45912</v>
+      </c>
       <c r="K361" s="49" t="str" cm="1">
         <f t="array" ref="K361">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36523,7 +36587,9 @@
       <c r="D362" s="49" t="s">
         <v>1034</v>
       </c>
-      <c r="E362" s="49"/>
+      <c r="E362" s="49" t="s">
+        <v>1097</v>
+      </c>
       <c r="F362" s="50">
         <v>45899</v>
       </c>
@@ -36533,7 +36599,9 @@
         <v>3</v>
       </c>
       <c r="I362" s="49"/>
-      <c r="J362" s="50"/>
+      <c r="J362" s="50" t="s">
+        <v>1106</v>
+      </c>
       <c r="K362" s="49" t="str" cm="1">
         <f t="array" ref="K362">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Sem Reparo</v>
@@ -36591,7 +36659,9 @@
         <v>3</v>
       </c>
       <c r="I363" s="49"/>
-      <c r="J363" s="50"/>
+      <c r="J363" s="50">
+        <v>45912</v>
+      </c>
       <c r="K363" s="49" t="str" cm="1">
         <f t="array" ref="K363">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36637,7 +36707,9 @@
       <c r="D364" s="49" t="s">
         <v>1037</v>
       </c>
-      <c r="E364" s="49"/>
+      <c r="E364" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F364" s="50">
         <v>45899</v>
       </c>
@@ -36647,7 +36719,9 @@
         <v>3</v>
       </c>
       <c r="I364" s="49"/>
-      <c r="J364" s="50"/>
+      <c r="J364" s="50">
+        <v>45919</v>
+      </c>
       <c r="K364" s="49" t="str" cm="1">
         <f t="array" ref="K364">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36693,7 +36767,9 @@
       <c r="D365" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="E365" s="49"/>
+      <c r="E365" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F365" s="50">
         <v>45899</v>
       </c>
@@ -36703,7 +36779,9 @@
         <v>3</v>
       </c>
       <c r="I365" s="49"/>
-      <c r="J365" s="50"/>
+      <c r="J365" s="50">
+        <v>45919</v>
+      </c>
       <c r="K365" s="49" t="str" cm="1">
         <f t="array" ref="K365">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -36749,7 +36827,9 @@
       <c r="D366" s="49" t="s">
         <v>1041</v>
       </c>
-      <c r="E366" s="49"/>
+      <c r="E366" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F366" s="50">
         <v>45899</v>
       </c>
@@ -36759,7 +36839,9 @@
         <v>3</v>
       </c>
       <c r="I366" s="49"/>
-      <c r="J366" s="50"/>
+      <c r="J366" s="50">
+        <v>45919</v>
+      </c>
       <c r="K366" s="49" t="str" cm="1">
         <f t="array" ref="K366">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -36805,7 +36887,9 @@
       <c r="D367" s="49" t="s">
         <v>812</v>
       </c>
-      <c r="E367" s="49"/>
+      <c r="E367" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F367" s="50">
         <v>45899</v>
       </c>
@@ -36815,7 +36899,9 @@
         <v>3</v>
       </c>
       <c r="I367" s="49"/>
-      <c r="J367" s="50"/>
+      <c r="J367" s="50">
+        <v>45919</v>
+      </c>
       <c r="K367" s="49" t="str" cm="1">
         <f t="array" ref="K367">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -36861,7 +36947,9 @@
       <c r="D368" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E368" s="49"/>
+      <c r="E368" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F368" s="50">
         <v>45899</v>
       </c>
@@ -36871,7 +36959,9 @@
         <v>3</v>
       </c>
       <c r="I368" s="49"/>
-      <c r="J368" s="50"/>
+      <c r="J368" s="50">
+        <v>45919</v>
+      </c>
       <c r="K368" s="49" t="str" cm="1">
         <f t="array" ref="K368">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -36917,7 +37007,9 @@
       <c r="D369" s="49" t="s">
         <v>710</v>
       </c>
-      <c r="E369" s="49"/>
+      <c r="E369" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F369" s="50">
         <v>45899</v>
       </c>
@@ -36927,7 +37019,9 @@
         <v>3</v>
       </c>
       <c r="I369" s="49"/>
-      <c r="J369" s="50"/>
+      <c r="J369" s="50">
+        <v>45919</v>
+      </c>
       <c r="K369" s="49" t="str" cm="1">
         <f t="array" ref="K369">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -36973,7 +37067,9 @@
       <c r="D370" s="49" t="s">
         <v>1044</v>
       </c>
-      <c r="E370" s="49"/>
+      <c r="E370" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F370" s="50">
         <v>45899</v>
       </c>
@@ -36983,7 +37079,9 @@
         <v>3</v>
       </c>
       <c r="I370" s="49"/>
-      <c r="J370" s="50"/>
+      <c r="J370" s="50">
+        <v>45919</v>
+      </c>
       <c r="K370" s="49" t="str" cm="1">
         <f t="array" ref="K370">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -37029,7 +37127,9 @@
       <c r="D371" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="E371" s="49"/>
+      <c r="E371" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F371" s="50">
         <v>45899</v>
       </c>
@@ -37039,7 +37139,9 @@
         <v>3</v>
       </c>
       <c r="I371" s="49"/>
-      <c r="J371" s="50"/>
+      <c r="J371" s="50">
+        <v>45919</v>
+      </c>
       <c r="K371" s="49" t="str" cm="1">
         <f t="array" ref="K371">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37085,7 +37187,9 @@
       <c r="D372" s="49" t="s">
         <v>1047</v>
       </c>
-      <c r="E372" s="49"/>
+      <c r="E372" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F372" s="50">
         <v>45899</v>
       </c>
@@ -37095,7 +37199,9 @@
         <v>3</v>
       </c>
       <c r="I372" s="49"/>
-      <c r="J372" s="50"/>
+      <c r="J372" s="50">
+        <v>45919</v>
+      </c>
       <c r="K372" s="49" t="str" cm="1">
         <f t="array" ref="K372">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -37141,7 +37247,9 @@
       <c r="D373" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="E373" s="49"/>
+      <c r="E373" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F373" s="50">
         <v>45899</v>
       </c>
@@ -37151,7 +37259,9 @@
         <v>3</v>
       </c>
       <c r="I373" s="49"/>
-      <c r="J373" s="50"/>
+      <c r="J373" s="50">
+        <v>45919</v>
+      </c>
       <c r="K373" s="49" t="str" cm="1">
         <f t="array" ref="K373">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37197,7 +37307,9 @@
       <c r="D374" s="49" t="s">
         <v>1050</v>
       </c>
-      <c r="E374" s="49"/>
+      <c r="E374" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F374" s="50">
         <v>45899</v>
       </c>
@@ -37207,7 +37319,9 @@
         <v>3</v>
       </c>
       <c r="I374" s="49"/>
-      <c r="J374" s="50"/>
+      <c r="J374" s="50">
+        <v>45919</v>
+      </c>
       <c r="K374" s="49" t="str" cm="1">
         <f t="array" ref="K374">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -37253,7 +37367,9 @@
       <c r="D375" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="E375" s="49"/>
+      <c r="E375" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F375" s="50">
         <v>45899</v>
       </c>
@@ -37263,7 +37379,9 @@
         <v>3</v>
       </c>
       <c r="I375" s="51"/>
-      <c r="J375" s="50"/>
+      <c r="J375" s="50">
+        <v>45919</v>
+      </c>
       <c r="K375" s="49" t="str" cm="1">
         <f t="array" ref="K375">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37309,7 +37427,9 @@
       <c r="D376" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="E376" s="49"/>
+      <c r="E376" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F376" s="50">
         <v>45899</v>
       </c>
@@ -37319,7 +37439,9 @@
         <v>3</v>
       </c>
       <c r="I376" s="51"/>
-      <c r="J376" s="50"/>
+      <c r="J376" s="50">
+        <v>45919</v>
+      </c>
       <c r="K376" s="49" t="str" cm="1">
         <f t="array" ref="K376">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37365,7 +37487,9 @@
       <c r="D377" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="E377" s="49"/>
+      <c r="E377" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F377" s="50">
         <v>45899</v>
       </c>
@@ -37375,7 +37499,9 @@
         <v>3</v>
       </c>
       <c r="I377" s="49"/>
-      <c r="J377" s="50"/>
+      <c r="J377" s="50">
+        <v>45919</v>
+      </c>
       <c r="K377" s="49" t="str" cm="1">
         <f t="array" ref="K377">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37421,7 +37547,9 @@
       <c r="D378" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="E378" s="49"/>
+      <c r="E378" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F378" s="50">
         <v>45899</v>
       </c>
@@ -37431,7 +37559,9 @@
         <v>3</v>
       </c>
       <c r="I378" s="49"/>
-      <c r="J378" s="50"/>
+      <c r="J378" s="50">
+        <v>45919</v>
+      </c>
       <c r="K378" s="49" t="str" cm="1">
         <f t="array" ref="K378">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37477,7 +37607,9 @@
       <c r="D379" s="49" t="s">
         <v>720</v>
       </c>
-      <c r="E379" s="49"/>
+      <c r="E379" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F379" s="50">
         <v>45899</v>
       </c>
@@ -37487,7 +37619,9 @@
         <v>3</v>
       </c>
       <c r="I379" s="49"/>
-      <c r="J379" s="50"/>
+      <c r="J379" s="50">
+        <v>45919</v>
+      </c>
       <c r="K379" s="49" t="str" cm="1">
         <f t="array" ref="K379">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37533,7 +37667,9 @@
       <c r="D380" s="51" t="s">
         <v>1054</v>
       </c>
-      <c r="E380" s="49"/>
+      <c r="E380" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F380" s="50">
         <v>45899</v>
       </c>
@@ -37543,7 +37679,9 @@
         <v>3</v>
       </c>
       <c r="I380" s="49"/>
-      <c r="J380" s="50"/>
+      <c r="J380" s="50">
+        <v>45919</v>
+      </c>
       <c r="K380" s="49" t="str" cm="1">
         <f t="array" ref="K380">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Analisando</v>
@@ -37589,7 +37727,9 @@
       <c r="D381" s="49">
         <v>512697018</v>
       </c>
-      <c r="E381" s="49"/>
+      <c r="E381" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F381" s="50">
         <v>45899</v>
       </c>
@@ -37599,7 +37739,9 @@
         <v>3</v>
       </c>
       <c r="I381" s="49"/>
-      <c r="J381" s="50"/>
+      <c r="J381" s="50">
+        <v>45919</v>
+      </c>
       <c r="K381" s="49" t="str" cm="1">
         <f t="array" ref="K381">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37645,7 +37787,9 @@
       <c r="D382" s="49">
         <v>513176012</v>
       </c>
-      <c r="E382" s="49"/>
+      <c r="E382" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F382" s="50">
         <v>45899</v>
       </c>
@@ -37655,7 +37799,9 @@
         <v>3</v>
       </c>
       <c r="I382" s="49"/>
-      <c r="J382" s="50"/>
+      <c r="J382" s="50">
+        <v>45919</v>
+      </c>
       <c r="K382" s="49" t="str" cm="1">
         <f t="array" ref="K382">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37707,7 +37853,9 @@
       <c r="D383" s="49">
         <v>513119007</v>
       </c>
-      <c r="E383" s="49"/>
+      <c r="E383" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F383" s="50">
         <v>45899</v>
       </c>
@@ -37717,7 +37865,9 @@
         <v>3</v>
       </c>
       <c r="I383" s="49"/>
-      <c r="J383" s="50"/>
+      <c r="J383" s="50">
+        <v>45919</v>
+      </c>
       <c r="K383" s="49" t="str" cm="1">
         <f t="array" ref="K383">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37769,7 +37919,9 @@
       <c r="D384" s="49">
         <v>510948024</v>
       </c>
-      <c r="E384" s="49"/>
+      <c r="E384" s="49" t="s">
+        <v>1105</v>
+      </c>
       <c r="F384" s="50">
         <v>45899</v>
       </c>
@@ -37779,7 +37931,9 @@
         <v>3</v>
       </c>
       <c r="I384" s="49"/>
-      <c r="J384" s="50"/>
+      <c r="J384" s="50">
+        <v>45919</v>
+      </c>
       <c r="K384" s="49" t="str" cm="1">
         <f t="array" ref="K384">IFERROR(CHOOSE(MATCH(TRUE,Tabela2[[#This Row],[REPARADA]:[RETORNO]]&lt;&gt;"",0),"Reparada","Analisando","Sem Reparo","Retorno"),"")</f>
         <v>Retorno</v>
@@ -37819,8 +37973,8 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="K2:L384">
-    <cfRule type="containsText" dxfId="165" priority="195" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K2)))</formula>
+    <cfRule type="containsText" dxfId="165" priority="198" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="164" priority="197" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K2)))</formula>
@@ -37828,58 +37982,58 @@
     <cfRule type="containsText" dxfId="163" priority="196" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="198" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K2)))</formula>
+    <cfRule type="containsText" dxfId="162" priority="195" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K350:L351">
     <cfRule type="containsText" dxfId="161" priority="188" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="185" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K350)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="187" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K350)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="186" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="187" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K350)))</formula>
+    <cfRule type="containsText" dxfId="158" priority="185" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K351:L352">
-    <cfRule type="containsText" dxfId="157" priority="177" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="157" priority="179" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K351)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="178" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="155" priority="178" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K351)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="179" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K351)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="154" priority="180" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K351)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K352:L352">
-    <cfRule type="containsText" dxfId="153" priority="173" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="173" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="174" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="150" priority="174" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="176" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="175" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K352:L353">
-    <cfRule type="containsText" dxfId="149" priority="166" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="149" priority="165" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="166" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="165" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="167" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
@@ -37889,20 +38043,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K354:L354">
-    <cfRule type="containsText" dxfId="145" priority="144" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
+    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="143" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="141" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="143" priority="142" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="146" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="150" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="140" priority="152" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
@@ -37910,8 +38064,8 @@
     <cfRule type="containsText" dxfId="139" priority="151" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="150" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
+    <cfRule type="containsText" dxfId="138" priority="144" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="137" priority="149" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
@@ -37922,142 +38076,142 @@
     <cfRule type="containsText" dxfId="135" priority="147" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K354:L355">
-    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="131" priority="135" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="136" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K355:L355">
-    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="126" priority="130" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K356:L358 K360:L362 K364:L364 K366:L366 K370:L370 K374:L374">
-    <cfRule type="containsText" dxfId="125" priority="106" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="125" priority="110" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="115" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="124" priority="109" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="108" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="107" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="114" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="121" priority="106" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="113" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="116" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="115" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="105" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="112" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="116" priority="113" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="112" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="110" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="109" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="116" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="107" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="108" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="105" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K380:L380">
-    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="113" priority="24" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="23" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="22" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="21" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="28" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="28" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="107" priority="27" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="23" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="22" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="106" priority="26" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="24" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="26" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K380:L382">
-    <cfRule type="containsText" dxfId="105" priority="31" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="105" priority="32" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="31" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="30" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="103" priority="30" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="102" priority="29" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="32" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K383:L383">
     <cfRule type="containsText" dxfId="101" priority="20" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="100" priority="18" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K383:L384">
-    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
+    <cfRule type="containsText" dxfId="97" priority="10" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="11" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="12" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K383)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K384:L384">
@@ -38087,48 +38241,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="85" priority="194" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="85" priority="193" operator="containsText" text="Não">
+      <formula>NOT(ISERROR(SEARCH("Não",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="194" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="193" operator="containsText" text="Não">
-      <formula>NOT(ISERROR(SEARCH("Não",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L353">
-    <cfRule type="containsText" dxfId="83" priority="161" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="83" priority="157" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="160" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="82" priority="153" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="155" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="154" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="156" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="159" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="78" priority="164" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="163" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="163" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="76" priority="162" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="160" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="159" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="164" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="155" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="154" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="153" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="156" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="158" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="157" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="162" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="72" priority="158" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38136,228 +38290,228 @@
     <cfRule type="containsText" dxfId="71" priority="122" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="123" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="70" priority="128" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="123" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="124" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="68" priority="124" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="125" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="67" priority="125" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="126" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="128" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="65" priority="117" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="118" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="120" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="119" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="118" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="61" priority="121" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="120" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="117" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
+    <cfRule type="containsText" dxfId="60" priority="126" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L359">
-    <cfRule type="containsText" dxfId="59" priority="101" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="59" priority="93" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="102" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="58" priority="94" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="103" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="57" priority="99" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="104" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="55" priority="98" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="95" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="98" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="53" priority="100" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="97" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="96" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="103" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="102" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="97" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="48" priority="101" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="96" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="95" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="94" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="100" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L363">
     <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="84" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="86" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="84" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="82" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="86" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="40" priority="82" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="92" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="91" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="90" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="88" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="38" priority="88" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="87" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="37" priority="91" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="92" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L365">
-    <cfRule type="containsText" dxfId="35" priority="69" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="35" priority="70" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="77" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="71" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="76" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="78" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="32" priority="78" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="79" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="74" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="80" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="28" priority="79" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="72" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="76" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="72" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L367:L369">
     <cfRule type="containsText" dxfId="23" priority="68" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="58" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="66" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="66" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="18" priority="62" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="65" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="17" priority="61" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="64" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="16" priority="60" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="63" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="15" priority="59" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="62" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="61" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="60" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="12" priority="64" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="59" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L380">
-    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="11" priority="37" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="36" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="10" priority="38" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="39" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="40" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="44" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="7" priority="41" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="42" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="44" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="43" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="4" priority="43" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="42" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="41" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="34" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="35" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="40" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="39" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="38" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="37" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -49919,15 +50073,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E58E5AC2F019E44C9CEEE08C47A0F714" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2ed36221075ddc0ddacd5c6eb0f9c59a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d59e940-78e6-46ac-8297-5910defdc610" xmlns:ns3="1b117891-96b0-452b-96aa-717bb8f742f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbf1883b765333a0e0d7f93c8b6da8a9" ns2:_="" ns3:_="">
     <xsd:import namespace="2d59e940-78e6-46ac-8297-5910defdc610"/>
@@ -50122,6 +50267,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -50134,14 +50288,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08AFF0B-4A51-4ADD-8D35-AF609F22F661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C973F18-BD51-4869-AD5D-5C453858A2D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50160,6 +50306,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08AFF0B-4A51-4ADD-8D35-AF609F22F661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC91023D-DE2F-4463-A17C-BE1EEFCB44F4}">
   <ds:schemaRefs>

--- a/Reparos Paiva.xlsx
+++ b/Reparos Paiva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paivaenergiapaivaenergia150.sharepoint.com/sites/paivaenergiaadministrativo/Engenharia/Reparos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paivaenergiapaivaenergia150.sharepoint.com/sites/paivaenergiaadministrativo/Engenharia/Reparos/dashboard_reparos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="13_ncr:1_{B8575399-4DAE-4AC4-BFCE-C4C7D773ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88CA64F-E74A-4F19-865A-380CD3F5D465}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{B8575399-4DAE-4AC4-BFCE-C4C7D773ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E82957D6-B22D-4A18-A3F3-F51E385E4967}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reparos Paiva" sheetId="54" r:id="rId1"/>
@@ -4214,6 +4214,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -4242,6 +4263,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -4256,7 +4284,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4270,28 +4298,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4368,6 +4375,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -4375,14 +4389,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4397,6 +4411,48 @@
         <b/>
         <i val="0"/>
         <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4438,41 +4494,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -4488,62 +4509,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4592,126 +4557,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4767,7 +4613,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4775,13 +4621,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -4809,7 +4648,168 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -4872,7 +4872,42 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4887,6 +4922,20 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -4928,13 +4977,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFC00000"/>
       </font>
     </dxf>
@@ -4943,20 +4985,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -4991,20 +5019,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -5027,34 +5041,6 @@
         <b/>
         <i val="0"/>
         <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -5096,41 +5082,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5145,63 +5096,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -5264,27 +5159,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5293,27 +5167,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -5362,6 +5215,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -5370,6 +5230,146 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
       </font>
     </dxf>
     <dxf>
@@ -6584,19 +6584,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}" name="Tabela2" displayName="Tabela2" ref="A1:AB384" totalsRowShown="0" headerRowDxfId="217" dataCellStyle="Normal">
-  <autoFilter ref="A1:AB384" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}">
-    <filterColumn colId="5">
-      <filters>
-        <dateGroupItem year="2025" month="8" day="30" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB384" xr:uid="{63683204-C07A-4E29-9C7C-CC5557614BCB}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{ED0FBB3D-D2AA-4156-A959-4A0F6CED4684}" name="SEQ" dataDxfId="216" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{52296C68-C138-4D5F-BF3A-B1CEA295081A}" name="PLACA" dataDxfId="215" dataCellStyle="Normal"/>
@@ -6970,8 +6960,8 @@
   <dimension ref="A1:BH384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L384"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7159,7 +7149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>1</v>
       </c>
@@ -7305,7 +7295,7 @@
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
     </row>
-    <row r="3" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>2</v>
       </c>
@@ -7451,7 +7441,7 @@
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
     </row>
-    <row r="4" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>3</v>
       </c>
@@ -7595,7 +7585,7 @@
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
     </row>
-    <row r="5" spans="1:60" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>4</v>
       </c>
@@ -7741,7 +7731,7 @@
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
     </row>
-    <row r="6" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>5</v>
       </c>
@@ -7885,7 +7875,7 @@
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
     </row>
-    <row r="7" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>6</v>
       </c>
@@ -8036,7 +8026,7 @@
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
     </row>
-    <row r="8" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>7</v>
       </c>
@@ -8185,7 +8175,7 @@
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
     </row>
-    <row r="9" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>8</v>
       </c>
@@ -8334,7 +8324,7 @@
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
     </row>
-    <row r="10" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>9</v>
       </c>
@@ -8481,7 +8471,7 @@
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
     </row>
-    <row r="11" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>10</v>
       </c>
@@ -8626,7 +8616,7 @@
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
     </row>
-    <row r="12" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>11</v>
       </c>
@@ -8769,7 +8759,7 @@
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
     </row>
-    <row r="13" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>12</v>
       </c>
@@ -8914,7 +8904,7 @@
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
     </row>
-    <row r="14" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>13</v>
       </c>
@@ -9063,7 +9053,7 @@
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
     </row>
-    <row r="15" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>14</v>
       </c>
@@ -9210,7 +9200,7 @@
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
     </row>
-    <row r="16" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>15</v>
       </c>
@@ -9353,7 +9343,7 @@
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
     </row>
-    <row r="17" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>16</v>
       </c>
@@ -9491,7 +9481,7 @@
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
     </row>
-    <row r="18" spans="1:60" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>17</v>
       </c>
@@ -9633,7 +9623,7 @@
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
     </row>
-    <row r="19" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>18</v>
       </c>
@@ -9777,7 +9767,7 @@
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
     </row>
-    <row r="20" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>19</v>
       </c>
@@ -9917,7 +9907,7 @@
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
     </row>
-    <row r="21" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>20</v>
       </c>
@@ -10057,7 +10047,7 @@
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
     </row>
-    <row r="22" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>21</v>
       </c>
@@ -10199,7 +10189,7 @@
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
     </row>
-    <row r="23" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>22</v>
       </c>
@@ -10345,7 +10335,7 @@
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
     </row>
-    <row r="24" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>23</v>
       </c>
@@ -10489,7 +10479,7 @@
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
     </row>
-    <row r="25" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>24</v>
       </c>
@@ -10629,7 +10619,7 @@
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
     </row>
-    <row r="26" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>25</v>
       </c>
@@ -10768,7 +10758,7 @@
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
     </row>
-    <row r="27" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>26</v>
       </c>
@@ -10908,7 +10898,7 @@
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
     </row>
-    <row r="28" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
         <v>27</v>
       </c>
@@ -11049,7 +11039,7 @@
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
     </row>
-    <row r="29" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>28</v>
       </c>
@@ -11185,7 +11175,7 @@
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
     </row>
-    <row r="30" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>29</v>
       </c>
@@ -11322,7 +11312,7 @@
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
     </row>
-    <row r="31" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>30</v>
       </c>
@@ -11465,7 +11455,7 @@
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
     </row>
-    <row r="32" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>31</v>
       </c>
@@ -11587,7 +11577,7 @@
       </c>
       <c r="AU32" s="2"/>
     </row>
-    <row r="33" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>32</v>
       </c>
@@ -11716,7 +11706,7 @@
       </c>
       <c r="AU33" s="2"/>
     </row>
-    <row r="34" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>33</v>
       </c>
@@ -11855,7 +11845,7 @@
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
     </row>
-    <row r="35" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>34</v>
       </c>
@@ -11997,7 +11987,7 @@
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
     </row>
-    <row r="36" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>35</v>
       </c>
@@ -12139,7 +12129,7 @@
       <c r="BG36" s="2"/>
       <c r="BH36" s="2"/>
     </row>
-    <row r="37" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>36</v>
       </c>
@@ -12268,7 +12258,7 @@
       </c>
       <c r="AU37" s="2"/>
     </row>
-    <row r="38" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>37</v>
       </c>
@@ -12397,7 +12387,7 @@
       </c>
       <c r="AU38" s="2"/>
     </row>
-    <row r="39" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>38</v>
       </c>
@@ -12531,7 +12521,7 @@
       </c>
       <c r="AU39" s="2"/>
     </row>
-    <row r="40" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>39</v>
       </c>
@@ -12663,7 +12653,7 @@
       </c>
       <c r="AU40" s="2"/>
     </row>
-    <row r="41" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>40</v>
       </c>
@@ -12795,7 +12785,7 @@
       </c>
       <c r="AU41" s="2"/>
     </row>
-    <row r="42" spans="1:60" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>41</v>
       </c>
@@ -12925,7 +12915,7 @@
       </c>
       <c r="AU42" s="2"/>
     </row>
-    <row r="43" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49">
         <v>42</v>
       </c>
@@ -13046,7 +13036,7 @@
       </c>
       <c r="AU43" s="2"/>
     </row>
-    <row r="44" spans="1:60" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="49">
         <v>43</v>
       </c>
@@ -13170,7 +13160,7 @@
       </c>
       <c r="AU44" s="2"/>
     </row>
-    <row r="45" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>44</v>
       </c>
@@ -13260,7 +13250,7 @@
       <c r="AT45" s="78"/>
       <c r="AU45" s="2"/>
     </row>
-    <row r="46" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>45</v>
       </c>
@@ -13333,7 +13323,7 @@
       <c r="AT46" s="78"/>
       <c r="AU46" s="2"/>
     </row>
-    <row r="47" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>46</v>
       </c>
@@ -13419,7 +13409,7 @@
       <c r="AT47" s="13"/>
       <c r="AU47" s="2"/>
     </row>
-    <row r="48" spans="1:60" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>47</v>
       </c>
@@ -13505,7 +13495,7 @@
       <c r="AT48" s="13"/>
       <c r="AU48" s="2"/>
     </row>
-    <row r="49" spans="1:47" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
         <v>48</v>
       </c>
@@ -13591,7 +13581,7 @@
       <c r="AT49" s="13"/>
       <c r="AU49" s="2"/>
     </row>
-    <row r="50" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
         <v>49</v>
       </c>
@@ -13679,7 +13669,7 @@
       <c r="AT50" s="13"/>
       <c r="AU50" s="2"/>
     </row>
-    <row r="51" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>50</v>
       </c>
@@ -13770,7 +13760,7 @@
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
     </row>
-    <row r="52" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
         <v>51</v>
       </c>
@@ -13859,7 +13849,7 @@
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
     </row>
-    <row r="53" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
         <v>52</v>
       </c>
@@ -13947,7 +13937,7 @@
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
     </row>
-    <row r="54" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>53</v>
       </c>
@@ -14033,7 +14023,7 @@
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
     </row>
-    <row r="55" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>54</v>
       </c>
@@ -14119,7 +14109,7 @@
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
     </row>
-    <row r="56" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>55</v>
       </c>
@@ -14204,7 +14194,7 @@
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
     </row>
-    <row r="57" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>56</v>
       </c>
@@ -14293,7 +14283,7 @@
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
     </row>
-    <row r="58" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>57</v>
       </c>
@@ -14384,7 +14374,7 @@
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
     </row>
-    <row r="59" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
         <v>58</v>
       </c>
@@ -14472,7 +14462,7 @@
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
     </row>
-    <row r="60" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>59</v>
       </c>
@@ -14563,7 +14553,7 @@
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
     </row>
-    <row r="61" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
         <v>60</v>
       </c>
@@ -14652,7 +14642,7 @@
       <c r="AT61" s="2"/>
       <c r="AU61" s="2"/>
     </row>
-    <row r="62" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>61</v>
       </c>
@@ -14737,7 +14727,7 @@
       <c r="AT62" s="2"/>
       <c r="AU62" s="2"/>
     </row>
-    <row r="63" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
         <v>62</v>
       </c>
@@ -14830,7 +14820,7 @@
       <c r="AT63" s="2"/>
       <c r="AU63" s="2"/>
     </row>
-    <row r="64" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>63</v>
       </c>
@@ -14920,7 +14910,7 @@
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
     </row>
-    <row r="65" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>64</v>
       </c>
@@ -15009,7 +14999,7 @@
       <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
     </row>
-    <row r="66" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>65</v>
       </c>
@@ -15095,7 +15085,7 @@
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
     </row>
-    <row r="67" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>66</v>
       </c>
@@ -15184,7 +15174,7 @@
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
     </row>
-    <row r="68" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>67</v>
       </c>
@@ -15271,7 +15261,7 @@
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
     </row>
-    <row r="69" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>68</v>
       </c>
@@ -15360,7 +15350,7 @@
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
     </row>
-    <row r="70" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>69</v>
       </c>
@@ -15449,7 +15439,7 @@
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
     </row>
-    <row r="71" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>70</v>
       </c>
@@ -15538,7 +15528,7 @@
       <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
     </row>
-    <row r="72" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>71</v>
       </c>
@@ -15617,7 +15607,7 @@
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
     </row>
-    <row r="73" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
         <v>72</v>
       </c>
@@ -15708,7 +15698,7 @@
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
     </row>
-    <row r="74" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>73</v>
       </c>
@@ -15799,7 +15789,7 @@
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
     </row>
-    <row r="75" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
         <v>74</v>
       </c>
@@ -15885,7 +15875,7 @@
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
     </row>
-    <row r="76" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
         <v>75</v>
       </c>
@@ -15969,7 +15959,7 @@
       <c r="AT76" s="2"/>
       <c r="AU76" s="2"/>
     </row>
-    <row r="77" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="49">
         <v>76</v>
       </c>
@@ -16053,7 +16043,7 @@
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
     </row>
-    <row r="78" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
         <v>77</v>
       </c>
@@ -16137,7 +16127,7 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
     </row>
-    <row r="79" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="49">
         <v>78</v>
       </c>
@@ -16214,7 +16204,7 @@
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
     </row>
-    <row r="80" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -16293,7 +16283,7 @@
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
     </row>
-    <row r="81" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -16372,7 +16362,7 @@
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
     </row>
-    <row r="82" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>81</v>
       </c>
@@ -16451,7 +16441,7 @@
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
     </row>
-    <row r="83" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>82</v>
       </c>
@@ -16530,7 +16520,7 @@
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
     </row>
-    <row r="84" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="49">
         <v>83</v>
       </c>
@@ -16609,7 +16599,7 @@
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
     </row>
-    <row r="85" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="49">
         <v>84</v>
       </c>
@@ -16688,7 +16678,7 @@
       <c r="AT85" s="2"/>
       <c r="AU85" s="2"/>
     </row>
-    <row r="86" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="49">
         <v>85</v>
       </c>
@@ -16767,7 +16757,7 @@
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
     </row>
-    <row r="87" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="49">
         <v>86</v>
       </c>
@@ -16848,7 +16838,7 @@
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
     </row>
-    <row r="88" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="49">
         <v>87</v>
       </c>
@@ -16936,7 +16926,7 @@
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
     </row>
-    <row r="89" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="49">
         <v>88</v>
       </c>
@@ -17026,7 +17016,7 @@
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
     </row>
-    <row r="90" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="49">
         <v>89</v>
       </c>
@@ -17113,7 +17103,7 @@
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
     </row>
-    <row r="91" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="49">
         <v>90</v>
       </c>
@@ -17197,7 +17187,7 @@
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
     </row>
-    <row r="92" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="49">
         <v>91</v>
       </c>
@@ -17281,7 +17271,7 @@
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
     </row>
-    <row r="93" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="49">
         <v>92</v>
       </c>
@@ -17365,7 +17355,7 @@
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
     </row>
-    <row r="94" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="49">
         <v>93</v>
       </c>
@@ -17451,7 +17441,7 @@
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
     </row>
-    <row r="95" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="49">
         <v>94</v>
       </c>
@@ -17533,7 +17523,7 @@
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
     </row>
-    <row r="96" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="49">
         <v>95</v>
       </c>
@@ -17626,7 +17616,7 @@
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
     </row>
-    <row r="97" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="49">
         <v>96</v>
       </c>
@@ -17719,7 +17709,7 @@
       <c r="AT97" s="2"/>
       <c r="AU97" s="2"/>
     </row>
-    <row r="98" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="49">
         <v>97</v>
       </c>
@@ -17805,7 +17795,7 @@
       <c r="AT98" s="2"/>
       <c r="AU98" s="2"/>
     </row>
-    <row r="99" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="49">
         <v>98</v>
       </c>
@@ -17889,7 +17879,7 @@
       <c r="AT99" s="2"/>
       <c r="AU99" s="2"/>
     </row>
-    <row r="100" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="49">
         <v>99</v>
       </c>
@@ -17973,7 +17963,7 @@
       <c r="AT100" s="2"/>
       <c r="AU100" s="2"/>
     </row>
-    <row r="101" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="49">
         <v>100</v>
       </c>
@@ -18058,7 +18048,7 @@
       <c r="AT101" s="2"/>
       <c r="AU101" s="2"/>
     </row>
-    <row r="102" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="49">
         <v>101</v>
       </c>
@@ -18139,7 +18129,7 @@
       <c r="AT102" s="2"/>
       <c r="AU102" s="2"/>
     </row>
-    <row r="103" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="49">
         <v>102</v>
       </c>
@@ -18220,7 +18210,7 @@
       <c r="AT103" s="2"/>
       <c r="AU103" s="2"/>
     </row>
-    <row r="104" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>103</v>
       </c>
@@ -18299,7 +18289,7 @@
       <c r="AT104" s="2"/>
       <c r="AU104" s="2"/>
     </row>
-    <row r="105" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="49">
         <v>104</v>
       </c>
@@ -18385,7 +18375,7 @@
       <c r="AT105" s="2"/>
       <c r="AU105" s="2"/>
     </row>
-    <row r="106" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="49">
         <v>105</v>
       </c>
@@ -18467,7 +18457,7 @@
       <c r="AT106" s="2"/>
       <c r="AU106" s="2"/>
     </row>
-    <row r="107" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="49">
         <v>106</v>
       </c>
@@ -18551,7 +18541,7 @@
       <c r="AT107" s="2"/>
       <c r="AU107" s="2"/>
     </row>
-    <row r="108" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="49">
         <v>107</v>
       </c>
@@ -18638,7 +18628,7 @@
       <c r="AT108" s="2"/>
       <c r="AU108" s="2"/>
     </row>
-    <row r="109" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="49">
         <v>108</v>
       </c>
@@ -18722,7 +18712,7 @@
       <c r="AT109" s="2"/>
       <c r="AU109" s="2"/>
     </row>
-    <row r="110" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="49">
         <v>109</v>
       </c>
@@ -18806,7 +18796,7 @@
       <c r="AT110" s="2"/>
       <c r="AU110" s="2"/>
     </row>
-    <row r="111" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="49">
         <v>110</v>
       </c>
@@ -18890,7 +18880,7 @@
       <c r="AT111" s="2"/>
       <c r="AU111" s="2"/>
     </row>
-    <row r="112" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="49">
         <v>111</v>
       </c>
@@ -18974,7 +18964,7 @@
       <c r="AT112" s="2"/>
       <c r="AU112" s="2"/>
     </row>
-    <row r="113" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="49">
         <v>112</v>
       </c>
@@ -19058,7 +19048,7 @@
       <c r="AT113" s="2"/>
       <c r="AU113" s="2"/>
     </row>
-    <row r="114" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="49">
         <v>113</v>
       </c>
@@ -19142,7 +19132,7 @@
       <c r="AT114" s="2"/>
       <c r="AU114" s="2"/>
     </row>
-    <row r="115" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="49">
         <v>114</v>
       </c>
@@ -19235,7 +19225,7 @@
       <c r="AT115" s="2"/>
       <c r="AU115" s="2"/>
     </row>
-    <row r="116" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="49">
         <v>115</v>
       </c>
@@ -19312,7 +19302,7 @@
       <c r="AT116" s="2"/>
       <c r="AU116" s="2"/>
     </row>
-    <row r="117" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="49">
         <v>116</v>
       </c>
@@ -19405,7 +19395,7 @@
       <c r="AT117" s="2"/>
       <c r="AU117" s="2"/>
     </row>
-    <row r="118" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="49">
         <v>117</v>
       </c>
@@ -19495,7 +19485,7 @@
       <c r="AT118" s="2"/>
       <c r="AU118" s="2"/>
     </row>
-    <row r="119" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="49">
         <v>118</v>
       </c>
@@ -19574,7 +19564,7 @@
       <c r="AT119" s="2"/>
       <c r="AU119" s="2"/>
     </row>
-    <row r="120" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="49">
         <v>119</v>
       </c>
@@ -19658,7 +19648,7 @@
       <c r="AT120" s="2"/>
       <c r="AU120" s="2"/>
     </row>
-    <row r="121" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="49">
         <v>120</v>
       </c>
@@ -19753,7 +19743,7 @@
       <c r="AT121" s="2"/>
       <c r="AU121" s="2"/>
     </row>
-    <row r="122" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="49">
         <v>121</v>
       </c>
@@ -19839,7 +19829,7 @@
       <c r="AT122" s="2"/>
       <c r="AU122" s="2"/>
     </row>
-    <row r="123" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="49">
         <v>122</v>
       </c>
@@ -19931,7 +19921,7 @@
       <c r="AT123" s="2"/>
       <c r="AU123" s="2"/>
     </row>
-    <row r="124" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="49">
         <v>123</v>
       </c>
@@ -20023,7 +20013,7 @@
       <c r="AT124" s="2"/>
       <c r="AU124" s="2"/>
     </row>
-    <row r="125" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A125" s="49">
         <v>124</v>
       </c>
@@ -20109,7 +20099,7 @@
       <c r="AT125" s="2"/>
       <c r="AU125" s="2"/>
     </row>
-    <row r="126" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A126" s="49">
         <v>125</v>
       </c>
@@ -20193,7 +20183,7 @@
       <c r="AT126" s="2"/>
       <c r="AU126" s="2"/>
     </row>
-    <row r="127" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A127" s="49">
         <v>126</v>
       </c>
@@ -20275,7 +20265,7 @@
       <c r="AT127" s="2"/>
       <c r="AU127" s="2"/>
     </row>
-    <row r="128" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A128" s="49">
         <v>127</v>
       </c>
@@ -20357,7 +20347,7 @@
       <c r="AT128" s="2"/>
       <c r="AU128" s="2"/>
     </row>
-    <row r="129" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A129" s="49">
         <v>128</v>
       </c>
@@ -20439,7 +20429,7 @@
       <c r="AT129" s="2"/>
       <c r="AU129" s="2"/>
     </row>
-    <row r="130" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A130" s="49">
         <v>129</v>
       </c>
@@ -20524,7 +20514,7 @@
       <c r="AT130" s="2"/>
       <c r="AU130" s="2"/>
     </row>
-    <row r="131" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A131" s="49">
         <v>130</v>
       </c>
@@ -20609,7 +20599,7 @@
       <c r="AT131" s="2"/>
       <c r="AU131" s="2"/>
     </row>
-    <row r="132" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A132" s="49">
         <v>131</v>
       </c>
@@ -20694,7 +20684,7 @@
       <c r="AT132" s="2"/>
       <c r="AU132" s="2"/>
     </row>
-    <row r="133" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A133" s="49">
         <v>132</v>
       </c>
@@ -20779,7 +20769,7 @@
       <c r="AT133" s="2"/>
       <c r="AU133" s="2"/>
     </row>
-    <row r="134" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A134" s="49">
         <v>133</v>
       </c>
@@ -20864,7 +20854,7 @@
       <c r="AT134" s="2"/>
       <c r="AU134" s="2"/>
     </row>
-    <row r="135" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A135" s="49">
         <v>134</v>
       </c>
@@ -20955,7 +20945,7 @@
       <c r="AT135" s="2"/>
       <c r="AU135" s="2"/>
     </row>
-    <row r="136" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A136" s="49">
         <v>135</v>
       </c>
@@ -21039,7 +21029,7 @@
       <c r="AT136" s="2"/>
       <c r="AU136" s="2"/>
     </row>
-    <row r="137" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A137" s="49">
         <v>136</v>
       </c>
@@ -21123,7 +21113,7 @@
       <c r="AT137" s="2"/>
       <c r="AU137" s="2"/>
     </row>
-    <row r="138" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A138" s="49">
         <v>137</v>
       </c>
@@ -21207,7 +21197,7 @@
       <c r="AT138" s="2"/>
       <c r="AU138" s="2"/>
     </row>
-    <row r="139" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A139" s="49">
         <v>138</v>
       </c>
@@ -21291,7 +21281,7 @@
       <c r="AT139" s="2"/>
       <c r="AU139" s="2"/>
     </row>
-    <row r="140" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A140" s="49">
         <v>139</v>
       </c>
@@ -21376,7 +21366,7 @@
       <c r="AT140" s="2"/>
       <c r="AU140" s="2"/>
     </row>
-    <row r="141" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A141" s="49">
         <v>140</v>
       </c>
@@ -21461,7 +21451,7 @@
       <c r="AT141" s="2"/>
       <c r="AU141" s="2"/>
     </row>
-    <row r="142" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A142" s="49">
         <v>141</v>
       </c>
@@ -21546,7 +21536,7 @@
       <c r="AT142" s="2"/>
       <c r="AU142" s="2"/>
     </row>
-    <row r="143" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A143" s="49">
         <v>142</v>
       </c>
@@ -21630,7 +21620,7 @@
       <c r="AT143" s="2"/>
       <c r="AU143" s="2"/>
     </row>
-    <row r="144" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A144" s="49">
         <v>143</v>
       </c>
@@ -21701,7 +21691,7 @@
       <c r="AT144" s="2"/>
       <c r="AU144" s="2"/>
     </row>
-    <row r="145" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A145" s="49">
         <v>144</v>
       </c>
@@ -21772,7 +21762,7 @@
       <c r="AT145" s="2"/>
       <c r="AU145" s="2"/>
     </row>
-    <row r="146" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A146" s="49">
         <v>145</v>
       </c>
@@ -21856,7 +21846,7 @@
       <c r="AT146" s="2"/>
       <c r="AU146" s="2"/>
     </row>
-    <row r="147" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A147" s="49">
         <v>146</v>
       </c>
@@ -21942,7 +21932,7 @@
       <c r="AT147" s="2"/>
       <c r="AU147" s="2"/>
     </row>
-    <row r="148" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A148" s="49">
         <v>147</v>
       </c>
@@ -22022,7 +22012,7 @@
       <c r="AT148" s="2"/>
       <c r="AU148" s="2"/>
     </row>
-    <row r="149" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A149" s="49">
         <v>148</v>
       </c>
@@ -22110,7 +22100,7 @@
       <c r="AT149" s="2"/>
       <c r="AU149" s="2"/>
     </row>
-    <row r="150" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A150" s="49">
         <v>149</v>
       </c>
@@ -22193,7 +22183,7 @@
       <c r="AT150" s="2"/>
       <c r="AU150" s="2"/>
     </row>
-    <row r="151" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A151" s="49">
         <v>150</v>
       </c>
@@ -22279,7 +22269,7 @@
       <c r="AT151" s="2"/>
       <c r="AU151" s="2"/>
     </row>
-    <row r="152" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A152" s="49">
         <v>151</v>
       </c>
@@ -22365,7 +22355,7 @@
       <c r="AT152" s="2"/>
       <c r="AU152" s="2"/>
     </row>
-    <row r="153" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A153" s="49">
         <v>152</v>
       </c>
@@ -22455,7 +22445,7 @@
       <c r="AT153" s="2"/>
       <c r="AU153" s="2"/>
     </row>
-    <row r="154" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A154" s="49">
         <v>153</v>
       </c>
@@ -22539,7 +22529,7 @@
       <c r="AT154" s="2"/>
       <c r="AU154" s="2"/>
     </row>
-    <row r="155" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A155" s="49">
         <v>154</v>
       </c>
@@ -22625,7 +22615,7 @@
       <c r="AT155" s="2"/>
       <c r="AU155" s="2"/>
     </row>
-    <row r="156" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A156" s="49">
         <v>155</v>
       </c>
@@ -22709,7 +22699,7 @@
       <c r="AT156" s="2"/>
       <c r="AU156" s="2"/>
     </row>
-    <row r="157" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A157" s="49">
         <v>156</v>
       </c>
@@ -22797,7 +22787,7 @@
       <c r="AT157" s="2"/>
       <c r="AU157" s="2"/>
     </row>
-    <row r="158" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A158" s="49">
         <v>157</v>
       </c>
@@ -22883,7 +22873,7 @@
       <c r="AT158" s="2"/>
       <c r="AU158" s="2"/>
     </row>
-    <row r="159" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A159" s="49">
         <v>158</v>
       </c>
@@ -22969,7 +22959,7 @@
       <c r="AT159" s="2"/>
       <c r="AU159" s="2"/>
     </row>
-    <row r="160" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A160" s="49">
         <v>159</v>
       </c>
@@ -23055,7 +23045,7 @@
       <c r="AT160" s="2"/>
       <c r="AU160" s="2"/>
     </row>
-    <row r="161" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A161" s="49">
         <v>160</v>
       </c>
@@ -23136,7 +23126,7 @@
       <c r="AT161" s="2"/>
       <c r="AU161" s="2"/>
     </row>
-    <row r="162" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A162" s="49">
         <v>161</v>
       </c>
@@ -23217,7 +23207,7 @@
       <c r="AT162" s="2"/>
       <c r="AU162" s="2"/>
     </row>
-    <row r="163" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A163" s="49">
         <v>162</v>
       </c>
@@ -23301,7 +23291,7 @@
       <c r="AT163" s="2"/>
       <c r="AU163" s="2"/>
     </row>
-    <row r="164" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A164" s="49">
         <v>163</v>
       </c>
@@ -23385,7 +23375,7 @@
       <c r="AT164" s="2"/>
       <c r="AU164" s="2"/>
     </row>
-    <row r="165" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A165" s="49">
         <v>164</v>
       </c>
@@ -23469,7 +23459,7 @@
       <c r="AT165" s="2"/>
       <c r="AU165" s="2"/>
     </row>
-    <row r="166" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A166" s="49">
         <v>165</v>
       </c>
@@ -23560,7 +23550,7 @@
       <c r="AT166" s="2"/>
       <c r="AU166" s="2"/>
     </row>
-    <row r="167" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A167" s="49">
         <v>166</v>
       </c>
@@ -23648,7 +23638,7 @@
       <c r="AT167" s="2"/>
       <c r="AU167" s="2"/>
     </row>
-    <row r="168" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A168" s="49">
         <v>167</v>
       </c>
@@ -23732,7 +23722,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A169" s="49">
         <v>168</v>
       </c>
@@ -23820,7 +23810,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A170" s="49">
         <v>169</v>
       </c>
@@ -23903,7 +23893,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A171" s="49">
         <v>170</v>
       </c>
@@ -23991,7 +23981,7 @@
       <c r="AT171" s="2"/>
       <c r="AU171" s="2"/>
     </row>
-    <row r="172" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A172" s="49">
         <v>171</v>
       </c>
@@ -24075,7 +24065,7 @@
       <c r="AT172" s="2"/>
       <c r="AU172" s="2"/>
     </row>
-    <row r="173" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A173" s="49">
         <v>172</v>
       </c>
@@ -24160,7 +24150,7 @@
       <c r="AT173" s="2"/>
       <c r="AU173" s="2"/>
     </row>
-    <row r="174" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A174" s="49">
         <v>173</v>
       </c>
@@ -24240,7 +24230,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" spans="1:47" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:47" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A175" s="49">
         <v>174</v>
       </c>
@@ -24328,7 +24318,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A176" s="49">
         <v>175</v>
       </c>
@@ -24395,7 +24385,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="177" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A177" s="49">
         <v>176</v>
       </c>
@@ -24462,7 +24452,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="178" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A178" s="49">
         <v>177</v>
       </c>
@@ -24529,7 +24519,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="179" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A179" s="49">
         <v>178</v>
       </c>
@@ -24617,7 +24607,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A180" s="49">
         <v>179</v>
       </c>
@@ -24699,7 +24689,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" spans="1:46" ht="18.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A181" s="49">
         <v>180</v>
       </c>
@@ -24781,7 +24771,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A182" s="49">
         <v>181</v>
       </c>
@@ -24852,7 +24842,7 @@
       </c>
       <c r="AC182" s="103"/>
     </row>
-    <row r="183" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A183" s="49">
         <v>182</v>
       </c>
@@ -24925,7 +24915,7 @@
       </c>
       <c r="AC183" s="103"/>
     </row>
-    <row r="184" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A184" s="49">
         <v>183</v>
       </c>
@@ -24988,7 +24978,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="185" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A185" s="49">
         <v>184</v>
       </c>
@@ -25059,7 +25049,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="186" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A186" s="49">
         <v>185</v>
       </c>
@@ -25128,7 +25118,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="187" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A187" s="49">
         <v>186</v>
       </c>
@@ -25196,7 +25186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A188" s="49">
         <v>187</v>
       </c>
@@ -25267,7 +25257,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="189" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A189" s="49">
         <v>188</v>
       </c>
@@ -25343,7 +25333,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="190" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A190" s="49">
         <v>189</v>
       </c>
@@ -25419,7 +25409,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A191" s="49">
         <v>190</v>
       </c>
@@ -25488,7 +25478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A192" s="49">
         <v>191</v>
       </c>
@@ -25552,7 +25542,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" s="49">
         <v>192</v>
       </c>
@@ -25616,7 +25606,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" s="49">
         <v>193</v>
       </c>
@@ -25691,7 +25681,7 @@
       </c>
       <c r="AC194" s="103"/>
     </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" s="49">
         <v>194</v>
       </c>
@@ -25753,7 +25743,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" s="49">
         <v>195</v>
       </c>
@@ -25819,7 +25809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A197" s="49">
         <v>196</v>
       </c>
@@ -25887,7 +25877,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" s="49">
         <v>198</v>
       </c>
@@ -25951,7 +25941,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" s="49">
         <v>299</v>
       </c>
@@ -26005,7 +25995,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" s="49">
         <v>300</v>
       </c>
@@ -26063,7 +26053,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" s="49">
         <v>200</v>
       </c>
@@ -26134,7 +26124,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" s="49">
         <v>201</v>
       </c>
@@ -26199,7 +26189,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" s="49">
         <v>202</v>
       </c>
@@ -26263,7 +26253,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" s="49">
         <v>203</v>
       </c>
@@ -26330,7 +26320,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" s="49">
         <v>204</v>
       </c>
@@ -26395,7 +26385,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A206" s="49">
         <v>205</v>
       </c>
@@ -26460,7 +26450,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A207" s="49">
         <v>206</v>
       </c>
@@ -26525,7 +26515,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A208" s="49">
         <v>207</v>
       </c>
@@ -26590,7 +26580,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A209" s="49">
         <v>208</v>
       </c>
@@ -26655,7 +26645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A210" s="49">
         <v>209</v>
       </c>
@@ -26726,7 +26716,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" s="49">
         <v>210</v>
       </c>
@@ -26791,7 +26781,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A212" s="49">
         <v>211</v>
       </c>
@@ -26858,7 +26848,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A213" s="49">
         <v>212</v>
       </c>
@@ -26931,7 +26921,7 @@
       </c>
       <c r="AC213" s="103"/>
     </row>
-    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A214" s="49">
         <v>213</v>
       </c>
@@ -27004,7 +26994,7 @@
       </c>
       <c r="AC214" s="103"/>
     </row>
-    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" s="49">
         <v>214</v>
       </c>
@@ -27067,7 +27057,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A216" s="49">
         <v>215</v>
       </c>
@@ -27137,7 +27127,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A217" s="49">
         <v>216</v>
       </c>
@@ -27208,7 +27198,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A218" s="49">
         <v>217</v>
       </c>
@@ -27276,7 +27266,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A219" s="49">
         <v>218</v>
       </c>
@@ -27341,7 +27331,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A220" s="49">
         <v>219</v>
       </c>
@@ -27401,7 +27391,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" s="49">
         <v>220</v>
       </c>
@@ -27466,7 +27456,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" s="49">
         <v>221</v>
       </c>
@@ -27536,7 +27526,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" s="49">
         <v>222</v>
       </c>
@@ -27603,7 +27593,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A224" s="49">
         <v>223</v>
       </c>
@@ -27677,7 +27667,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225" s="49">
         <v>224</v>
       </c>
@@ -27749,7 +27739,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="226" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226" s="49">
         <v>225</v>
       </c>
@@ -27814,7 +27804,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227" s="49">
         <v>226</v>
       </c>
@@ -27876,7 +27866,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" s="49">
         <v>227</v>
       </c>
@@ -27943,7 +27933,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="229" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229" s="49">
         <v>228</v>
       </c>
@@ -28013,7 +28003,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" s="49">
         <v>229</v>
       </c>
@@ -28083,7 +28073,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" s="49">
         <v>230</v>
       </c>
@@ -28157,7 +28147,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232" s="49">
         <v>231</v>
       </c>
@@ -28222,7 +28212,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A233" s="49">
         <v>232</v>
       </c>
@@ -28296,7 +28286,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234" s="49">
         <v>233</v>
       </c>
@@ -28364,7 +28354,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="235" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235" s="49">
         <v>234</v>
       </c>
@@ -28436,7 +28426,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236" s="49">
         <v>235</v>
       </c>
@@ -28503,7 +28493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237" s="49">
         <v>236</v>
       </c>
@@ -28569,7 +28559,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238" s="49">
         <v>237</v>
       </c>
@@ -28635,7 +28625,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" s="49">
         <v>238</v>
       </c>
@@ -28711,7 +28701,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" s="49">
         <v>239</v>
       </c>
@@ -28783,7 +28773,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A241" s="49">
         <v>240</v>
       </c>
@@ -28853,7 +28843,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A242" s="49">
         <v>241</v>
       </c>
@@ -28927,7 +28917,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A243" s="49">
         <v>242</v>
       </c>
@@ -29001,7 +28991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A244" s="49">
         <v>243</v>
       </c>
@@ -29071,7 +29061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A245" s="49">
         <v>244</v>
       </c>
@@ -29145,7 +29135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A246" s="49">
         <v>245</v>
       </c>
@@ -29215,7 +29205,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A247" s="49">
         <v>246</v>
       </c>
@@ -29286,7 +29276,7 @@
       </c>
       <c r="AC247" s="107"/>
     </row>
-    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
         <v>247</v>
       </c>
@@ -29357,7 +29347,7 @@
       </c>
       <c r="AC248" s="110"/>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A249" s="49">
         <v>248</v>
       </c>
@@ -29431,7 +29421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A250" s="49">
         <v>249</v>
       </c>
@@ -29505,7 +29495,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A251" s="49">
         <v>250</v>
       </c>
@@ -29575,7 +29565,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A252" s="49">
         <v>251</v>
       </c>
@@ -29649,7 +29639,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A253" s="49">
         <v>252</v>
       </c>
@@ -29718,7 +29708,7 @@
       </c>
       <c r="AC253" s="110"/>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A254" s="49">
         <v>253</v>
       </c>
@@ -29787,7 +29777,7 @@
       </c>
       <c r="AC254" s="110"/>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A255" s="49">
         <v>254</v>
       </c>
@@ -29861,7 +29851,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A256" s="49">
         <v>255</v>
       </c>
@@ -29927,7 +29917,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257" s="49">
         <v>256</v>
       </c>
@@ -29993,7 +29983,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258" s="49">
         <v>257</v>
       </c>
@@ -30059,7 +30049,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259" s="49">
         <v>258</v>
       </c>
@@ -30127,7 +30117,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A260" s="49">
         <v>259</v>
       </c>
@@ -30197,7 +30187,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261" s="49">
         <v>260</v>
       </c>
@@ -30263,7 +30253,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262" s="49">
         <v>261</v>
       </c>
@@ -30325,7 +30315,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263" s="49">
         <v>262</v>
       </c>
@@ -30391,7 +30381,7 @@
       <c r="AA263" s="98"/>
       <c r="AB263" s="99"/>
     </row>
-    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A264" s="49">
         <v>263</v>
       </c>
@@ -30459,7 +30449,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265" s="49">
         <v>264</v>
       </c>
@@ -30533,7 +30523,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266" s="49">
         <v>265</v>
       </c>
@@ -30607,7 +30597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267" s="49">
         <v>266</v>
       </c>
@@ -30677,7 +30667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A268" s="49">
         <v>267</v>
       </c>
@@ -30747,7 +30737,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269" s="49">
         <v>268</v>
       </c>
@@ -30817,7 +30807,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270" s="49">
         <v>269</v>
       </c>
@@ -30885,7 +30875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271" s="49">
         <v>270</v>
       </c>
@@ -30955,7 +30945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272" s="49">
         <v>271</v>
       </c>
@@ -31027,7 +31017,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273" s="49">
         <v>272</v>
       </c>
@@ -31095,7 +31085,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A274" s="49">
         <v>273</v>
       </c>
@@ -31157,7 +31147,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="275" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A275" s="49">
         <v>274</v>
       </c>
@@ -31229,7 +31219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="276" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A276" s="49">
         <v>275</v>
       </c>
@@ -31299,7 +31289,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="277" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A277" s="49">
         <v>276</v>
       </c>
@@ -31365,7 +31355,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="278" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A278" s="49">
         <v>277</v>
       </c>
@@ -31431,7 +31421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="279" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A279" s="49">
         <v>278</v>
       </c>
@@ -31499,7 +31489,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="280" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A280" s="49">
         <v>279</v>
       </c>
@@ -31567,7 +31557,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="281" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A281" s="49">
         <v>280</v>
       </c>
@@ -31627,7 +31617,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="282" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A282" s="49">
         <v>281</v>
       </c>
@@ -31687,7 +31677,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="283" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A283" s="49">
         <v>282</v>
       </c>
@@ -31751,7 +31741,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="284" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A284" s="49">
         <v>283</v>
       </c>
@@ -31809,7 +31799,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="285" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A285" s="49">
         <v>284</v>
       </c>
@@ -31877,7 +31867,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="286" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A286" s="49">
         <v>285</v>
       </c>
@@ -31937,7 +31927,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="287" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A287" s="49">
         <v>286</v>
       </c>
@@ -32003,7 +31993,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="288" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A288" s="49">
         <v>287</v>
       </c>
@@ -32067,7 +32057,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A289" s="49">
         <v>288</v>
       </c>
@@ -32138,7 +32128,7 @@
       </c>
       <c r="AC289" s="107"/>
     </row>
-    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A290" s="49">
         <v>289</v>
       </c>
@@ -32202,7 +32192,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A291" s="49">
         <v>290</v>
       </c>
@@ -32268,7 +32258,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A292" s="49">
         <v>291</v>
       </c>
@@ -32334,7 +32324,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A293" s="49">
         <v>292</v>
       </c>
@@ -32400,7 +32390,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A294" s="49">
         <v>293</v>
       </c>
@@ -32470,7 +32460,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A295" s="49">
         <v>294</v>
       </c>
@@ -32536,7 +32526,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A296" s="49">
         <v>295</v>
       </c>
@@ -32604,7 +32594,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A297" s="49">
         <v>296</v>
       </c>
@@ -32672,7 +32662,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A298" s="49">
         <v>297</v>
       </c>
@@ -32736,7 +32726,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A299" s="49">
         <v>197</v>
       </c>
@@ -32794,7 +32784,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A300" s="49">
         <v>199</v>
       </c>
@@ -32858,7 +32848,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A301" s="49">
         <v>298</v>
       </c>
@@ -32916,7 +32906,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A302" s="49">
         <v>301</v>
       </c>
@@ -32984,7 +32974,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A303" s="49">
         <v>302</v>
       </c>
@@ -33052,7 +33042,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A304" s="49">
         <v>303</v>
       </c>
@@ -33112,7 +33102,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="305" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A305" s="49">
         <v>304</v>
       </c>
@@ -33172,7 +33162,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306" s="49">
         <v>305</v>
       </c>
@@ -33232,7 +33222,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A307" s="49">
         <v>306</v>
       </c>
@@ -33296,7 +33286,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="308" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A308" s="49">
         <v>307</v>
       </c>
@@ -33364,7 +33354,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="309" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A309" s="49">
         <v>308</v>
       </c>
@@ -33424,7 +33414,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310" s="49">
         <v>309</v>
       </c>
@@ -33490,7 +33480,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A311" s="49">
         <v>310</v>
       </c>
@@ -33554,7 +33544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="312" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312" s="49">
         <v>311</v>
       </c>
@@ -33620,7 +33610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313" s="49">
         <v>312</v>
       </c>
@@ -33690,7 +33680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314" s="49">
         <v>313</v>
       </c>
@@ -33752,7 +33742,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="315" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A315" s="49">
         <v>314</v>
       </c>
@@ -33820,7 +33810,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="316" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A316" s="49">
         <v>315</v>
       </c>
@@ -33888,7 +33878,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A317" s="49">
         <v>316</v>
       </c>
@@ -33948,7 +33938,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A318" s="49">
         <v>318</v>
       </c>
@@ -34014,7 +34004,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A319" s="49">
         <v>319</v>
       </c>
@@ -34082,7 +34072,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A320" s="49">
         <v>320</v>
       </c>
@@ -34136,7 +34126,7 @@
       <c r="AA320" s="98"/>
       <c r="AB320" s="99"/>
     </row>
-    <row r="321" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321" s="49">
         <v>321</v>
       </c>
@@ -34190,7 +34180,7 @@
       <c r="AA321" s="98"/>
       <c r="AB321" s="99"/>
     </row>
-    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322" s="49">
         <v>322</v>
       </c>
@@ -34244,7 +34234,7 @@
       <c r="AA322" s="98"/>
       <c r="AB322" s="99"/>
     </row>
-    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323" s="49">
         <v>323</v>
       </c>
@@ -34300,7 +34290,7 @@
       <c r="AA323" s="98"/>
       <c r="AB323" s="99"/>
     </row>
-    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324" s="49">
         <v>324</v>
       </c>
@@ -34356,7 +34346,7 @@
       <c r="AA324" s="98"/>
       <c r="AB324" s="99"/>
     </row>
-    <row r="325" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325" s="49">
         <v>325</v>
       </c>
@@ -34412,7 +34402,7 @@
       <c r="AA325" s="98"/>
       <c r="AB325" s="99"/>
     </row>
-    <row r="326" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326" s="49">
         <v>326</v>
       </c>
@@ -34478,7 +34468,7 @@
       <c r="AA326" s="98"/>
       <c r="AB326" s="99"/>
     </row>
-    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327" s="49">
         <v>327</v>
       </c>
@@ -34546,7 +34536,7 @@
       </c>
       <c r="AB327" s="99"/>
     </row>
-    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328" s="49">
         <v>328</v>
       </c>
@@ -34614,7 +34604,7 @@
       </c>
       <c r="AB328" s="99"/>
     </row>
-    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329" s="49">
         <v>329</v>
       </c>
@@ -34676,7 +34666,7 @@
       <c r="AA329" s="98"/>
       <c r="AB329" s="99"/>
     </row>
-    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A330" s="49">
         <v>330</v>
       </c>
@@ -34732,7 +34722,7 @@
       <c r="AA330" s="98"/>
       <c r="AB330" s="99"/>
     </row>
-    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331" s="49">
         <v>331</v>
       </c>
@@ -34794,7 +34784,7 @@
       <c r="AA331" s="98"/>
       <c r="AB331" s="99"/>
     </row>
-    <row r="332" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A332" s="49">
         <v>332</v>
       </c>
@@ -34850,7 +34840,7 @@
       <c r="AA332" s="98"/>
       <c r="AB332" s="99"/>
     </row>
-    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333" s="49">
         <v>333</v>
       </c>
@@ -34912,7 +34902,7 @@
       <c r="AA333" s="98"/>
       <c r="AB333" s="99"/>
     </row>
-    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334" s="49">
         <v>334</v>
       </c>
@@ -34968,7 +34958,7 @@
       <c r="AA334" s="98"/>
       <c r="AB334" s="99"/>
     </row>
-    <row r="335" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335" s="49">
         <v>335</v>
       </c>
@@ -35030,7 +35020,7 @@
       <c r="AA335" s="98"/>
       <c r="AB335" s="99"/>
     </row>
-    <row r="336" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336" s="49">
         <v>336</v>
       </c>
@@ -35086,7 +35076,7 @@
       <c r="AA336" s="98"/>
       <c r="AB336" s="99"/>
     </row>
-    <row r="337" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A337" s="49">
         <v>337</v>
       </c>
@@ -35142,7 +35132,7 @@
       <c r="AA337" s="98"/>
       <c r="AB337" s="99"/>
     </row>
-    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A338" s="49">
         <v>338</v>
       </c>
@@ -35198,7 +35188,7 @@
       <c r="AA338" s="98"/>
       <c r="AB338" s="99"/>
     </row>
-    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339" s="49">
         <v>339</v>
       </c>
@@ -35264,7 +35254,7 @@
       <c r="AA339" s="98"/>
       <c r="AB339" s="99"/>
     </row>
-    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340" s="49">
         <v>340</v>
       </c>
@@ -35328,7 +35318,7 @@
       <c r="AA340" s="98"/>
       <c r="AB340" s="99"/>
     </row>
-    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341" s="49">
         <v>341</v>
       </c>
@@ -35384,7 +35374,7 @@
       <c r="AA341" s="98"/>
       <c r="AB341" s="99"/>
     </row>
-    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A342" s="49">
         <v>342</v>
       </c>
@@ -35450,7 +35440,7 @@
       <c r="AA342" s="98"/>
       <c r="AB342" s="99"/>
     </row>
-    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A343" s="49">
         <v>343</v>
       </c>
@@ -35512,7 +35502,7 @@
       <c r="AA343" s="98"/>
       <c r="AB343" s="99"/>
     </row>
-    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A344" s="49">
         <v>344</v>
       </c>
@@ -35568,7 +35558,7 @@
       <c r="AA344" s="98"/>
       <c r="AB344" s="99"/>
     </row>
-    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345" s="49">
         <v>345</v>
       </c>
@@ -35624,7 +35614,7 @@
       <c r="AA345" s="98"/>
       <c r="AB345" s="99"/>
     </row>
-    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A346" s="49">
         <v>346</v>
       </c>
@@ -35686,7 +35676,7 @@
       <c r="AA346" s="98"/>
       <c r="AB346" s="99"/>
     </row>
-    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347" s="49">
         <v>347</v>
       </c>
@@ -35742,7 +35732,7 @@
       <c r="AA347" s="98"/>
       <c r="AB347" s="99"/>
     </row>
-    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A348" s="49">
         <v>348</v>
       </c>
@@ -35798,7 +35788,7 @@
       <c r="AA348" s="98"/>
       <c r="AB348" s="99"/>
     </row>
-    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A349" s="49">
         <v>349</v>
       </c>
@@ -37973,8 +37963,8 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="K2:L384">
-    <cfRule type="containsText" dxfId="165" priority="198" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K2)))</formula>
+    <cfRule type="containsText" dxfId="165" priority="195" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="164" priority="197" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K2)))</formula>
@@ -37982,58 +37972,58 @@
     <cfRule type="containsText" dxfId="163" priority="196" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="195" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K2)))</formula>
+    <cfRule type="containsText" dxfId="162" priority="198" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K350:L351">
     <cfRule type="containsText" dxfId="161" priority="188" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="187" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K350)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="185" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K350)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="186" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="185" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K350)))</formula>
+    <cfRule type="containsText" dxfId="158" priority="187" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K351:L352">
-    <cfRule type="containsText" dxfId="157" priority="179" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K351)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="157" priority="177" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K351)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="178" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="156" priority="178" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K351)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="179" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K351)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="154" priority="180" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K351)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K352:L352">
-    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
+    <cfRule type="containsText" dxfId="153" priority="173" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="152" priority="174" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="176" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K352)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="173" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="174" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="175" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K352:L353">
-    <cfRule type="containsText" dxfId="149" priority="165" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="149" priority="166" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="165" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K352)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="166" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K352)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="167" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K352)))</formula>
@@ -38043,20 +38033,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K354:L354">
-    <cfRule type="containsText" dxfId="145" priority="145" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
+    <cfRule type="containsText" dxfId="145" priority="144" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="141" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="143" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="143" priority="142" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="143" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="146" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="150" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
+    <cfRule type="containsText" dxfId="141" priority="141" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="140" priority="152" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
@@ -38064,8 +38054,8 @@
     <cfRule type="containsText" dxfId="139" priority="151" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="144" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
+    <cfRule type="containsText" dxfId="138" priority="150" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="137" priority="149" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
@@ -38076,142 +38066,142 @@
     <cfRule type="containsText" dxfId="135" priority="147" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="145" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K354:L355">
-    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="133" priority="134" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="135" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K354)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="131" priority="136" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K354)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K354)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K355:L355">
-    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="131" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="126" priority="132" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="129" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="130" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K356:L358 K360:L362 K364:L364 K366:L366 K370:L370 K374:L374">
-    <cfRule type="containsText" dxfId="125" priority="110" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="125" priority="106" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="109" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="124" priority="115" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="114" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="113" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="108" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="121" priority="112" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="107" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="120" priority="111" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="106" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="119" priority="110" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K356)))</formula>
+    <cfRule type="containsText" dxfId="118" priority="109" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="116" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="117" priority="116" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="115" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="116" priority="107" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="105" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="113" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="112" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="115" priority="108" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K356)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K356)))</formula>
+    <cfRule type="containsText" dxfId="114" priority="105" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K356)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K380:L380">
-    <cfRule type="containsText" dxfId="113" priority="24" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="28" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="23" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="22" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="110" priority="23" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="22" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="21" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="28" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="108" priority="24" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="27" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
+    <cfRule type="containsText" dxfId="107" priority="26" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="26" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
+    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K380:L382">
-    <cfRule type="containsText" dxfId="105" priority="32" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="31" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="105" priority="31" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="30" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="104" priority="30" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="29" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="32" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",K380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K383:L383">
     <cfRule type="containsText" dxfId="101" priority="20" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="18" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K383:L384">
-    <cfRule type="containsText" dxfId="97" priority="10" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
+    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="96" priority="11" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="12" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",K383)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",K383)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",K383)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",K383)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K384:L384">
@@ -38241,48 +38231,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="85" priority="193" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="85" priority="194" operator="containsText" text="Sim">
+      <formula>NOT(ISERROR(SEARCH("Sim",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="193" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="194" operator="containsText" text="Sim">
-      <formula>NOT(ISERROR(SEARCH("Sim",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L353">
-    <cfRule type="containsText" dxfId="83" priority="157" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="83" priority="161" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="153" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="82" priority="160" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="159" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="163" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="164" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="155" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="154" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="153" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="155" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
+    <cfRule type="containsText" dxfId="75" priority="156" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="154" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="74" priority="158" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="156" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="164" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="163" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="162" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="161" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="73" priority="157" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L353)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="160" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="159" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L353)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="158" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="72" priority="162" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L353)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38290,228 +38280,228 @@
     <cfRule type="containsText" dxfId="71" priority="122" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="128" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="70" priority="123" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="124" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="123" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="125" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="124" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="125" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
+    <cfRule type="containsText" dxfId="67" priority="126" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="127" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="117" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="65" priority="128" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="119" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="118" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="121" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="118" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="120" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="61" priority="120" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L355)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="121" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="60" priority="117" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L355)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="126" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L359">
-    <cfRule type="containsText" dxfId="59" priority="93" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="59" priority="101" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="94" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="58" priority="102" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="99" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="57" priority="103" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="104" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="98" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="55" priority="99" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="98" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="95" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="53" priority="97" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="96" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="95" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="100" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="94" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="97" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="96" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="48" priority="100" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="103" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="102" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L359)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="101" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L359)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L363">
     <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="89" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="46" priority="84" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="82" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="86" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="42" priority="86" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="84" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="41" priority="92" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="40" priority="91" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="81" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="82" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="90" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="88" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L363)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="88" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="91" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="36" priority="87" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L363)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="92" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L365">
-    <cfRule type="containsText" dxfId="35" priority="70" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="35" priority="69" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="71" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="77" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="76" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="78" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="31" priority="78" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="74" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="79" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="80" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="79" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="72" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="70" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L365)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="76" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="72" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L365)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="75" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L365)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L367:L369">
     <cfRule type="containsText" dxfId="23" priority="68" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="67" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="22" priority="58" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="66" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="19" priority="66" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="18" priority="65" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="63" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="17" priority="64" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="63" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="62" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="15" priority="62" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="61" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="14" priority="61" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="60" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="13" priority="60" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="59" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="12" priority="59" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L367)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L367)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L367)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="64" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L380">
-    <cfRule type="containsText" dxfId="11" priority="37" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="38" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="10" priority="36" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="44" operator="containsText" text="Reparada">
+      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="43" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="42" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="39" operator="containsText" text="Analisando">
+    <cfRule type="containsText" dxfId="6" priority="41" operator="containsText" text="Retorno">
+      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="34" operator="containsText" text="Sem Reparo">
+      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="35" operator="containsText" text="Analisando">
       <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="40" operator="containsText" text="Reparada">
+    <cfRule type="containsText" dxfId="3" priority="40" operator="containsText" text="Reparada">
       <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="41" operator="containsText" text="Retorno">
-      <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="39" operator="containsText" text="Analisando">
+      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="42" operator="containsText" text="Sem Reparo">
+    <cfRule type="containsText" dxfId="1" priority="38" operator="containsText" text="Sem Reparo">
       <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="44" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="43" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="Retorno">
+    <cfRule type="containsText" dxfId="0" priority="37" operator="containsText" text="Retorno">
       <formula>NOT(ISERROR(SEARCH("Retorno",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="34" operator="containsText" text="Sem Reparo">
-      <formula>NOT(ISERROR(SEARCH("Sem Reparo",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="Analisando">
-      <formula>NOT(ISERROR(SEARCH("Analisando",L380)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="36" operator="containsText" text="Reparada">
-      <formula>NOT(ISERROR(SEARCH("Reparada",L380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -50073,6 +50063,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d59e940-78e6-46ac-8297-5910defdc610">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1b117891-96b0-452b-96aa-717bb8f742f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E58E5AC2F019E44C9CEEE08C47A0F714" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2ed36221075ddc0ddacd5c6eb0f9c59a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d59e940-78e6-46ac-8297-5910defdc610" xmlns:ns3="1b117891-96b0-452b-96aa-717bb8f742f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbf1883b765333a0e0d7f93c8b6da8a9" ns2:_="" ns3:_="">
     <xsd:import namespace="2d59e940-78e6-46ac-8297-5910defdc610"/>
@@ -50267,27 +50277,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC91023D-DE2F-4463-A17C-BE1EEFCB44F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d59e940-78e6-46ac-8297-5910defdc610"/>
+    <ds:schemaRef ds:uri="1b117891-96b0-452b-96aa-717bb8f742f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d59e940-78e6-46ac-8297-5910defdc610">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1b117891-96b0-452b-96aa-717bb8f742f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08AFF0B-4A51-4ADD-8D35-AF609F22F661}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C973F18-BD51-4869-AD5D-5C453858A2D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50304,23 +50313,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A08AFF0B-4A51-4ADD-8D35-AF609F22F661}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC91023D-DE2F-4463-A17C-BE1EEFCB44F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d59e940-78e6-46ac-8297-5910defdc610"/>
-    <ds:schemaRef ds:uri="1b117891-96b0-452b-96aa-717bb8f742f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>